--- a/brunei_covid19_clusters_2021.xlsx
+++ b/brunei_covid19_clusters_2021.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buns/Dropbox/projects/brunei_covid19_clusters_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104BB59-56C4-764C-8806-6CE03B20EEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A6579A-BABB-E942-BB2E-093CA955E378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="2280" windowWidth="18960" windowHeight="11920" activeTab="3" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16100" windowHeight="14900" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
   </bookViews>
   <sheets>
     <sheet name="Local_Cases" sheetId="3" r:id="rId1"/>
     <sheet name="Clusters" sheetId="1" r:id="rId2"/>
-    <sheet name="Case_No_Start" sheetId="4" r:id="rId3"/>
+    <sheet name="New_Cases_Breakdown" sheetId="4" r:id="rId3"/>
     <sheet name="New_Linked" sheetId="2" r:id="rId4"/>
     <sheet name="NotUpdated_Unlinked" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">New_Linked!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">New_Linked!$A$1:$E$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NotUpdated_Unlinked!$A$1:$F$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="236">
   <si>
     <t>cluster_name</t>
   </si>
@@ -309,9 +309,6 @@
     <t>?-041</t>
   </si>
   <si>
-    <t>635</t>
-  </si>
-  <si>
     <t>The Mall</t>
   </si>
   <si>
@@ -336,24 +333,12 @@
     <t>case_no_end</t>
   </si>
   <si>
-    <t>import_cases</t>
-  </si>
-  <si>
-    <t>local_cases</t>
-  </si>
-  <si>
     <t>https://t.me/govbnofficial/2763</t>
   </si>
   <si>
     <t>"Case 573"</t>
   </si>
   <si>
-    <t>total_cases</t>
-  </si>
-  <si>
-    <t>unlinked_cases</t>
-  </si>
-  <si>
     <t>?-042</t>
   </si>
   <si>
@@ -724,6 +709,39 @@
   </si>
   <si>
     <t>new_cluster</t>
+  </si>
+  <si>
+    <t>https://t.me/govbnofficial/2832</t>
+  </si>
+  <si>
+    <t>21 Aug 2021</t>
+  </si>
+  <si>
+    <t>new_total_cases</t>
+  </si>
+  <si>
+    <t>new_import_cases</t>
+  </si>
+  <si>
+    <t>new_local_cases</t>
+  </si>
+  <si>
+    <t>new_unlinked_cases</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>22 Aug 2021</t>
+  </si>
+  <si>
+    <t>https://t.me/govbnofficial/2838</t>
+  </si>
+  <si>
+    <t>Samima</t>
+  </si>
+  <si>
+    <t>Jaya Hypermart</t>
   </si>
 </sst>
 </file>
@@ -733,7 +751,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -750,6 +768,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -775,13 +799,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,10 +817,10 @@
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
@@ -825,11 +851,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D15" totalsRowShown="0">
-  <autoFilter ref="A1:D15" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D18" totalsRowCount="1">
+  <autoFilter ref="A1:D17" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C8219F84-41B4-4543-970C-AC240178CAAB}" name="new_cases_local"/>
+    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C8219F84-41B4-4543-970C-AC240178CAAB}" name="new_cases_local" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B89804C-1CE2-B54F-9742-6E80801137AF}" name="source_url"/>
   </tableColumns>
@@ -838,37 +864,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H110" totalsRowShown="0">
-  <autoFilter ref="A1:H110" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H137" totalsRowCount="1">
+  <autoFilter ref="A1:H136" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{FD55AB48-86EA-6B44-859E-42B3D99DA7D0}" name="cluster_name"/>
     <tableColumn id="3" xr3:uid="{F3E27EF3-3744-034A-9633-177D4B2A7666}" name="previous_cluster_name"/>
-    <tableColumn id="4" xr3:uid="{FA5A0D2F-BDB2-E444-BDC8-B89AEC5370BE}" name="new_cases"/>
+    <tableColumn id="4" xr3:uid="{FA5A0D2F-BDB2-E444-BDC8-B89AEC5370BE}" name="new_cases" totalsRowFunction="sum"/>
     <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{7108E558-15B0-5E4C-A80E-FC8EBC11D432}" name="source_url1"/>
     <tableColumn id="7" xr3:uid="{4C4321BC-9B94-014F-97AB-E3BE8CCD396B}" name="source_url2"/>
-    <tableColumn id="8" xr3:uid="{E259B1DE-B69C-5C47-8027-BA10CFD2EBBE}" name="new_cluster"/>
+    <tableColumn id="8" xr3:uid="{E259B1DE-B69C-5C47-8027-BA10CFD2EBBE}" name="new_cluster" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I18" totalsRowCount="1">
+  <autoFilter ref="A1:I17" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8C5D9FA-8E9D-8545-9981-54854FE541D8}" name="date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B8C5D9FA-8E9D-8545-9981-54854FE541D8}" name="date" totalsRowLabel="Total" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{29F6D0CD-21FC-2D43-AD75-290F8F2D80F2}" name="case_no_start"/>
     <tableColumn id="3" xr3:uid="{07A29089-AC57-974B-B586-DB389B72504E}" name="case_no_end"/>
-    <tableColumn id="4" xr3:uid="{2323FEAD-BA39-1F4B-A64F-C1CE345C6526}" name="total_cases"/>
-    <tableColumn id="5" xr3:uid="{9AD3E806-AC67-E848-B711-E5736B59F08D}" name="import_cases"/>
-    <tableColumn id="6" xr3:uid="{612DE4E6-72F0-BD46-A3BD-B98744ED83BD}" name="local_cases">
+    <tableColumn id="4" xr3:uid="{2323FEAD-BA39-1F4B-A64F-C1CE345C6526}" name="new_total_cases" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{9AD3E806-AC67-E848-B711-E5736B59F08D}" name="new_import_cases" totalsRowFunction="sum"/>
+    <tableColumn id="6" xr3:uid="{612DE4E6-72F0-BD46-A3BD-B98744ED83BD}" name="new_local_cases" totalsRowFunction="sum">
       <calculatedColumnFormula>D2-E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BC13AC45-A932-EA43-91A6-E6046EBE0E6E}" name="unlinked_cases"/>
-    <tableColumn id="8" xr3:uid="{9E8AED9A-7E3C-5549-8CCB-B32FFEA47188}" name="prev_unlinked_now_linked"/>
-    <tableColumn id="9" xr3:uid="{FD88F222-E9C6-4A47-AED8-6A931ABEAD96}" name="source_url" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{BC13AC45-A932-EA43-91A6-E6046EBE0E6E}" name="new_unlinked_cases" totalsRowFunction="sum"/>
+    <tableColumn id="8" xr3:uid="{9E8AED9A-7E3C-5549-8CCB-B32FFEA47188}" name="prev_unlinked_now_linked" totalsRowFunction="sum"/>
+    <tableColumn id="9" xr3:uid="{FD88F222-E9C6-4A47-AED8-6A931ABEAD96}" name="source_url" totalsRowFunction="count" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -877,11 +903,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E359D52-C057-0F41-8002-6AF09123BA7B}" name="Table4" displayName="Table4" ref="A1:E36" totalsRowShown="0">
-  <autoFilter ref="A1:E36" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E359D52-C057-0F41-8002-6AF09123BA7B}" name="Table4" displayName="Table4" ref="A1:E42" totalsRowCount="1">
+  <autoFilter ref="A1:E41" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E33">
+    <sortCondition ref="C1:C41"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{650FFC6D-6931-674A-AA81-6A7327C1CB44}" name="case_no"/>
+    <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" totalsRowLabel="Total" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{650FFC6D-6931-674A-AA81-6A7327C1CB44}" name="case_no" totalsRowFunction="count"/>
     <tableColumn id="4" xr3:uid="{F1223669-1683-D24C-862B-34273155D9DC}" name="cluster"/>
     <tableColumn id="5" xr3:uid="{9392D9B5-12E7-6A4F-B195-380B3DA016DB}" name="source_url1"/>
     <tableColumn id="6" xr3:uid="{1FF80B5A-D7F0-FB42-9556-102E186C3C42}" name="source_url2"/>
@@ -1202,9 +1231,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A6B8-87CC-554B-9DA1-2DFB2BF01927}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1231,205 +1260,244 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(A2,Tbl_Case_No[],6,FALSE)</f>
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(A3,Tbl_Case_No[],6,FALSE)</f>
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(A4,Tbl_Case_No[],6,FALSE)</f>
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(A5,Tbl_Case_No[],6,FALSE)</f>
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(A6,Tbl_Case_No[],6,FALSE)</f>
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44423</v>
+        <v>44425</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(A7,Tbl_Case_No[],6,FALSE)</f>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <f>VLOOKUP(A8,Tbl_Case_No[],6,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44421</v>
+        <v>44423</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <f>VLOOKUP(A9,Tbl_Case_No[],6,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44419</v>
+        <v>44421</v>
       </c>
       <c r="B11">
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44415</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18">
+        <f>SUBTOTAL(109,Tbl_Local_Cases[new_cases_local])</f>
+        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -1443,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B37A9-E51B-0E49-8E6A-54CF922008BF}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,645 +1549,632 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F3" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B12">
-        <v>583</v>
+        <v>44430</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
+        <v>44430</v>
+      </c>
+      <c r="B13">
+        <v>477</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B15">
-        <v>884</v>
+        <v>583</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="D16">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B18" t="s">
-        <v>184</v>
+        <v>44430</v>
+      </c>
+      <c r="B18">
+        <v>1328</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F18" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
+        <v>44430</v>
+      </c>
+      <c r="B20">
+        <v>362</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
+        <v>44429</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F21" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
+        <v>44429</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B23">
-        <v>477</v>
+        <v>44429</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
+        <v>44429</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B26">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B27">
-        <v>583</v>
+        <v>1385</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2832</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B28">
-        <v>477</v>
+        <v>44428</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>180</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F32" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -2127,954 +2182,1004 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F33" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F34" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>222</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E35" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F35" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F36" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F37" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
+        <v>44428</v>
+      </c>
+      <c r="B38">
+        <v>583</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F38" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F39" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D40">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F40" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
+        <v>44428</v>
+      </c>
+      <c r="B41">
+        <v>884</v>
       </c>
       <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>4</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F41" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="E42" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F42" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
         <v>6</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>94</v>
+      <c r="E43" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F43" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E44" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F44" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F45" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>44427</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E46" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>94</v>
+        <v>4</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F48" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
+        <v>44427</v>
+      </c>
+      <c r="B49">
+        <v>477</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>94</v>
+      <c r="E49" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F49" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F50" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>10</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B52" t="s">
-        <v>77</v>
+        <v>44427</v>
+      </c>
+      <c r="B52">
+        <v>573</v>
       </c>
       <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
+        <v>44427</v>
+      </c>
+      <c r="B53">
+        <v>583</v>
       </c>
       <c r="D53">
-        <v>10</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B54" t="s">
-        <v>38</v>
+        <v>44426</v>
+      </c>
+      <c r="B54">
+        <v>477</v>
       </c>
       <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F54" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>95</v>
+      <c r="E55" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F55" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>44426</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
       </c>
       <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F56" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F57" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58">
+        <v>22</v>
+      </c>
+      <c r="E58" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F58" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F59" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F60" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
         <v>1</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>29</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B61" s="1">
-        <v>477</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>97</v>
+      <c r="E62" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F62" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>97</v>
+      <c r="E63" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F63" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>44426</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>97</v>
+      <c r="E64" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>44423</v>
+        <v>44425</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>97</v>
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F65" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B66" s="1">
-        <v>495</v>
+        <v>44425</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F66" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H66" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B67" s="1">
-        <v>535</v>
+        <v>44425</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
       </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>97</v>
+        <v>3</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F67" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H67" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F68" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>43</v>
+        <v>44425</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F70" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F70" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
+        <v>44425</v>
+      </c>
+      <c r="B72" s="7">
+        <v>635</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F72" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+      <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" t="s">
-        <v>75</v>
-      </c>
-      <c r="H76" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="1">
-        <v>499</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F77" t="s">
-        <v>75</v>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B78" s="1">
-        <v>499</v>
+        <v>44424</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s">
-        <v>74</v>
+      <c r="E78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
       </c>
       <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>16</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
+        <v>44424</v>
+      </c>
+      <c r="B82">
+        <v>477</v>
       </c>
       <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>42</v>
+        <v>44424</v>
+      </c>
+      <c r="B84" s="7">
+        <v>635</v>
       </c>
       <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -3082,19 +3187,20 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>43</v>
+        <v>44424</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s">
-        <v>74</v>
+      <c r="E85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -3102,124 +3208,128 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B86" t="s">
+        <v>44423</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D86">
-        <v>21</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B87" t="s">
-        <v>11</v>
+        <v>44423</v>
+      </c>
+      <c r="B87">
+        <v>477</v>
       </c>
       <c r="D87">
-        <v>4</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F87" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B88" t="s">
+        <v>44423</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D88">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F88" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>44420</v>
+        <v>44423</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F89" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B90" t="s">
+        <v>44423</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F90" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>44420</v>
+        <v>44423</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D91">
-        <v>6</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F91" t="s">
-        <v>39</v>
-      </c>
-      <c r="H91" t="b">
         <v>1</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>44420</v>
+        <v>44423</v>
       </c>
       <c r="B92" s="1">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D92">
-        <v>3</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F92" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F92" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -3227,19 +3337,20 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B93" t="s">
-        <v>38</v>
+        <v>44423</v>
+      </c>
+      <c r="B93" s="1">
+        <v>535</v>
       </c>
       <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F93" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3247,379 +3358,858 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94">
         <v>4</v>
       </c>
-      <c r="D94">
-        <v>25</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>24</v>
+        <v>44422</v>
+      </c>
+      <c r="B96">
+        <v>477</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" t="b">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>77</v>
+      </c>
+      <c r="C103" s="1">
+        <v>499</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>44418</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
+        <v>44421</v>
+      </c>
+      <c r="B104" s="1">
+        <v>499</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
-      </c>
-      <c r="H104" t="b">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>44417</v>
+        <v>44421</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>44417</v>
+        <v>44421</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D106">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
-      <c r="H106" t="b">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>44417</v>
+        <v>44421</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" t="b">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>44416</v>
+        <v>44421</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
-      <c r="H108" t="b">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>44416</v>
+        <v>44421</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" t="b">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>44415</v>
-      </c>
-      <c r="B110" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
+        <v>44421</v>
+      </c>
+      <c r="B110">
+        <v>451</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H110" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
+      <c r="A111" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B111">
+        <v>477</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>21</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B118" s="1">
+        <v>499</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
+        <v>39</v>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
+        <v>39</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>25</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s">
+        <v>32</v>
+      </c>
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>9</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>29</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>7</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>231</v>
+      </c>
+      <c r="D137">
+        <f>SUBTOTAL(109,Tbl_Clusters[new_cases])</f>
+        <v>889</v>
+      </c>
+      <c r="H137">
+        <f>SUBTOTAL(103,Tbl_Clusters[new_cluster])</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3632,20 +4222,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D616A1-1DAC-724C-B8AD-DC0D33396E98}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -3655,25 +4245,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="H1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I1" t="s">
         <v>40</v>
@@ -3681,427 +4271,522 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B3" si="0">C3+1</f>
-        <v>1137</v>
+        <f t="shared" ref="B2:B5" si="0">C3+1</f>
+        <v>1456</v>
       </c>
       <c r="C2">
-        <v>1333</v>
+        <v>1769</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D3" si="1">C2-C3</f>
-        <v>197</v>
+        <f t="shared" ref="D2:D5" si="1">C2-C3</f>
+        <v>314</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F3" si="2">D2-E2</f>
-        <v>197</v>
+        <f>D2-E2</f>
+        <v>308</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>947</v>
+        <v>1334</v>
       </c>
       <c r="C3">
-        <v>1136</v>
+        <v>1455</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>120</v>
+      </c>
+      <c r="G3">
+        <v>79</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1137</v>
+      </c>
+      <c r="C4">
+        <v>1333</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="2">D4-E4</f>
+        <v>197</v>
+      </c>
+      <c r="G4">
+        <v>74</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>947</v>
+      </c>
+      <c r="C5">
+        <v>1136</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>51</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I5" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>44426</v>
       </c>
-      <c r="B4">
-        <f>C5+1</f>
+      <c r="B6">
+        <f>C7+1</f>
         <v>853</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>946</v>
       </c>
-      <c r="D4">
-        <f>C4-C5</f>
+      <c r="D6">
+        <f>C6-C7</f>
         <v>94</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F4">
-        <f>D4-E4</f>
+      <c r="F6">
+        <f>D6-E6</f>
         <v>94</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I6" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>44425</v>
       </c>
-      <c r="B5">
-        <f>C6+1</f>
+      <c r="B7">
+        <f>C8+1</f>
         <v>788</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>852</v>
       </c>
-      <c r="D5">
-        <f>C5-C6</f>
+      <c r="D7">
+        <f>C7-C8</f>
         <v>65</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="F5">
-        <f>D5-E5</f>
+      <c r="F7">
+        <f>D7-E7</f>
         <v>61</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I7" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>44424</v>
       </c>
-      <c r="B6">
-        <f>C7+1</f>
+      <c r="B8">
+        <f>C9+1</f>
         <v>724</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>787</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D14" si="3">C6-C7</f>
+      <c r="D8">
+        <f t="shared" ref="D8:D16" si="3">C8-C9</f>
         <v>64</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F8" si="4">D6-E6</f>
+      <c r="F8">
+        <f t="shared" ref="F8:F10" si="4">D8-E8</f>
         <v>64</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>24</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I8" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44423</v>
       </c>
-      <c r="B7">
-        <f>C8+1</f>
+      <c r="B9">
+        <f>C10+1</f>
         <v>641</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>723</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>32</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I9" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>44422</v>
       </c>
-      <c r="B8">
-        <f>C9+1</f>
+      <c r="B10">
+        <f>C11+1</f>
         <v>599</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>640</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I10" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2706</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>44421</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B14" si="5">C10+1</f>
+      <c r="B11">
+        <f t="shared" ref="B11:B16" si="5">C12+1</f>
         <v>544</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>598</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F15" si="6">D9-E9</f>
+      <c r="F11">
+        <f t="shared" ref="F11:F17" si="6">D11-E11</f>
         <v>54</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>22</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I11" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2687</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>44420</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <f t="shared" si="5"/>
         <v>495</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>543</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I12" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2668</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>44419</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <f t="shared" si="5"/>
         <v>441</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>494</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>13</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I13" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2639</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>44418</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <f t="shared" si="5"/>
         <v>407</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>440</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I14" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2626</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44417</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>406</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I15" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2595</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44416</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>364</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I16" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2557</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44415</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>340</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>347</v>
       </c>
-      <c r="D15">
-        <f>C15-B15+1</f>
+      <c r="D17">
+        <f>C17-B17+1</f>
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I17" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18">
+        <f>SUBTOTAL(109,Tbl_Case_No[new_total_cases])</f>
+        <v>1430</v>
+      </c>
+      <c r="E18">
+        <f>SUBTOTAL(109,Tbl_Case_No[new_import_cases])</f>
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <f>SUBTOTAL(109,Tbl_Case_No[new_local_cases])</f>
+        <v>1404</v>
+      </c>
+      <c r="G18">
+        <f>SUBTOTAL(109,Tbl_Case_No[new_unlinked_cases])</f>
+        <v>504</v>
+      </c>
+      <c r="H18">
+        <f>SUBTOTAL(109,Tbl_Case_No[prev_unlinked_now_linked])</f>
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <f>SUBTOTAL(103,Tbl_Case_No[source_url])</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4114,9 +4799,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4145,528 +4830,612 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B2">
-        <v>884</v>
-      </c>
-      <c r="C2">
-        <v>884</v>
+        <v>1056</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B3">
-        <v>583</v>
+        <v>362</v>
       </c>
       <c r="C3">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44426</v>
+        <v>44430</v>
       </c>
       <c r="B4">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44425</v>
+        <v>44430</v>
       </c>
       <c r="B5">
-        <v>762</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
+        <v>415</v>
+      </c>
+      <c r="C5">
+        <v>362</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B6">
-        <v>597</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
+        <v>451</v>
+      </c>
+      <c r="C6">
+        <v>451</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B7">
+        <v>477</v>
+      </c>
+      <c r="C7">
+        <v>477</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B8">
+        <v>583</v>
+      </c>
+      <c r="C8">
+        <v>483</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B9">
+        <v>674</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B10">
+        <v>762</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B11">
+        <v>597</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B12">
+        <v>646</v>
+      </c>
+      <c r="C12">
+        <v>495</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B13">
+        <v>652</v>
+      </c>
+      <c r="C13">
+        <v>495</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B14">
+        <v>495</v>
+      </c>
+      <c r="C14">
+        <v>495</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44424</v>
       </c>
-      <c r="B7">
-        <v>765</v>
-      </c>
-      <c r="C7">
-        <v>635</v>
-      </c>
-      <c r="D7" s="5" t="str">
+      <c r="B15">
+        <v>774</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44424</v>
       </c>
-      <c r="B8">
-        <v>766</v>
-      </c>
-      <c r="C8">
-        <v>635</v>
-      </c>
-      <c r="D8" s="5" t="str">
+      <c r="B16">
+        <v>776</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44424</v>
       </c>
-      <c r="B9">
-        <v>635</v>
-      </c>
-      <c r="C9">
-        <v>635</v>
-      </c>
-      <c r="D9" s="5" t="str">
+      <c r="B17">
+        <v>630</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>44424</v>
       </c>
-      <c r="B10">
-        <v>774</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="5" t="str">
+      <c r="B18">
+        <v>755</v>
+      </c>
+      <c r="C18">
+        <v>573</v>
+      </c>
+      <c r="D18" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>44424</v>
       </c>
-      <c r="B11">
-        <v>776</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="5" t="str">
+      <c r="B19">
+        <v>573</v>
+      </c>
+      <c r="C19">
+        <v>573</v>
+      </c>
+      <c r="D19" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B12">
-        <v>630</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B13">
-        <v>755</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B14">
-        <v>573</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B15">
-        <v>646</v>
-      </c>
-      <c r="C15">
-        <v>495</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B16">
-        <v>652</v>
-      </c>
-      <c r="C16">
-        <v>495</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B17">
-        <v>495</v>
-      </c>
-      <c r="C17">
-        <v>495</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B18">
-        <v>618</v>
-      </c>
-      <c r="C18">
-        <v>495</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B19">
-        <v>649</v>
-      </c>
-      <c r="C19">
-        <v>535</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44423</v>
       </c>
       <c r="B20">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="C20">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B21">
+        <v>499</v>
+      </c>
+      <c r="C21">
+        <v>499</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>44423</v>
       </c>
-      <c r="B21">
-        <v>616</v>
-      </c>
-      <c r="C21">
+      <c r="B22">
+        <v>649</v>
+      </c>
+      <c r="C22">
         <v>535</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D22" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B23">
+        <v>535</v>
+      </c>
+      <c r="C23">
+        <v>535</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B24">
+        <v>616</v>
+      </c>
+      <c r="C24">
+        <v>535</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B25">
+        <v>765</v>
+      </c>
+      <c r="C25">
+        <v>635</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B26">
+        <v>766</v>
+      </c>
+      <c r="C26">
+        <v>635</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>44422</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>432</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>44422</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>566</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>44422</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>563</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
         <v>76</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>44422</v>
       </c>
-      <c r="B25">
+      <c r="B30">
         <v>448</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B26">
-        <v>477</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B27">
-        <v>451</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B28">
-        <v>499</v>
-      </c>
-      <c r="C28" s="1">
-        <v>499</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B29">
-        <v>441</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B30">
-        <v>450</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44419</v>
+        <v>44424</v>
       </c>
       <c r="B31">
-        <v>423</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="C31">
+        <v>635</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44418</v>
+        <v>44428</v>
       </c>
       <c r="B32">
-        <v>362</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
+        <v>884</v>
+      </c>
+      <c r="C32">
+        <v>884</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44417</v>
+        <v>44430</v>
       </c>
       <c r="B33">
-        <v>363</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
+        <v>1328</v>
+      </c>
+      <c r="C33">
+        <v>1328</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B34">
-        <v>364</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>441</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44416</v>
+        <v>44420</v>
       </c>
       <c r="B35">
-        <v>346</v>
+        <v>450</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B36">
+        <v>423</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B37">
+        <v>362</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B38">
+        <v>363</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B39">
+        <v>364</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>44416</v>
       </c>
-      <c r="B36">
+      <c r="B40">
+        <v>346</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B41">
         <v>345</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" t="s">
         <v>21</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E41" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42">
+        <f>SUBTOTAL(103,Table4[case_no])</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4701,7 +5470,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -4721,10 +5490,10 @@
         <v>674</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4736,7 +5505,7 @@
         <v>44426</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4748,7 +5517,7 @@
         <v>44426</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4760,7 +5529,7 @@
         <v>44426</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4772,7 +5541,7 @@
         <v>44426</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4784,7 +5553,7 @@
         <v>44426</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4796,7 +5565,7 @@
         <v>44426</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4808,7 +5577,7 @@
         <v>44426</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4820,7 +5589,7 @@
         <v>44426</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4832,7 +5601,7 @@
         <v>44426</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4844,7 +5613,7 @@
         <v>44426</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4856,7 +5625,7 @@
         <v>44426</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4868,7 +5637,7 @@
         <v>44426</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4880,7 +5649,7 @@
         <v>44426</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4892,7 +5661,7 @@
         <v>44426</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4904,7 +5673,7 @@
         <v>44426</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4916,7 +5685,7 @@
         <v>44426</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4928,7 +5697,7 @@
         <v>44426</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4940,7 +5709,7 @@
         <v>44426</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4952,7 +5721,7 @@
         <v>44426</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4964,7 +5733,7 @@
         <v>44426</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4976,7 +5745,7 @@
         <v>44426</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4988,7 +5757,7 @@
         <v>44426</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5000,7 +5769,7 @@
         <v>44426</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5012,7 +5781,7 @@
         <v>44426</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5024,7 +5793,7 @@
         <v>44426</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5036,7 +5805,7 @@
         <v>44426</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5048,7 +5817,7 @@
         <v>44426</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5060,7 +5829,7 @@
         <v>44426</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5072,7 +5841,7 @@
         <v>44426</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5084,7 +5853,7 @@
         <v>44426</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5099,13 +5868,13 @@
         <v>762</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -5119,10 +5888,10 @@
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -5130,10 +5899,10 @@
         <v>44425</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -5141,10 +5910,10 @@
         <v>44425</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -5152,10 +5921,10 @@
         <v>44425</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -5163,10 +5932,10 @@
         <v>44425</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -5174,10 +5943,10 @@
         <v>44425</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -5185,10 +5954,10 @@
         <v>44425</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -5196,10 +5965,10 @@
         <v>44425</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -5207,10 +5976,10 @@
         <v>44425</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -5218,10 +5987,10 @@
         <v>44425</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5229,10 +5998,10 @@
         <v>44425</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -5240,10 +6009,10 @@
         <v>44425</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -5251,10 +6020,10 @@
         <v>44425</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -5262,10 +6031,10 @@
         <v>44425</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -5273,10 +6042,10 @@
         <v>44425</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -5284,10 +6053,10 @@
         <v>44425</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -5295,10 +6064,10 @@
         <v>44425</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -5306,10 +6075,10 @@
         <v>44425</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5317,10 +6086,10 @@
         <v>44425</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5379,7 +6148,7 @@
         <v>774</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5394,7 +6163,7 @@
         <v>776</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5412,7 +6181,7 @@
         <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5427,7 +6196,7 @@
         <v>755</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5442,7 +6211,7 @@
         <v>573</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5454,7 +6223,7 @@
         <v>44424</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E61" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5466,7 +6235,7 @@
         <v>44424</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5478,7 +6247,7 @@
         <v>44424</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E63" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5490,7 +6259,7 @@
         <v>44424</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5502,7 +6271,7 @@
         <v>44424</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E65" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5514,7 +6283,7 @@
         <v>44424</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5526,7 +6295,7 @@
         <v>44424</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E67" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5538,7 +6307,7 @@
         <v>44424</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5550,7 +6319,7 @@
         <v>44424</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E69" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5562,7 +6331,7 @@
         <v>44424</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5574,7 +6343,7 @@
         <v>44424</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E71" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5586,7 +6355,7 @@
         <v>44424</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5598,7 +6367,7 @@
         <v>44424</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E73" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5610,7 +6379,7 @@
         <v>44424</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5622,7 +6391,7 @@
         <v>44424</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E75" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5634,7 +6403,7 @@
         <v>44424</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5646,7 +6415,7 @@
         <v>44424</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E77" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5658,7 +6427,7 @@
         <v>44424</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5670,7 +6439,7 @@
         <v>44424</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E79" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5682,7 +6451,7 @@
         <v>44424</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5694,7 +6463,7 @@
         <v>44424</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E81" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5706,7 +6475,7 @@
         <v>44424</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5718,7 +6487,7 @@
         <v>44424</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E83" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5730,7 +6499,7 @@
         <v>44424</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5847,7 +6616,7 @@
         <v>44423</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5859,7 +6628,7 @@
         <v>44423</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E93" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5871,7 +6640,7 @@
         <v>44423</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5883,7 +6652,7 @@
         <v>44423</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E95" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5895,7 +6664,7 @@
         <v>44423</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5907,7 +6676,7 @@
         <v>44423</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E97" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5919,7 +6688,7 @@
         <v>44423</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5931,7 +6700,7 @@
         <v>44423</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E99" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5943,7 +6712,7 @@
         <v>44423</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5955,7 +6724,7 @@
         <v>44423</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E101" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5967,7 +6736,7 @@
         <v>44423</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5979,7 +6748,7 @@
         <v>44423</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E103" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5991,7 +6760,7 @@
         <v>44423</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6003,7 +6772,7 @@
         <v>44423</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E105" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6015,7 +6784,7 @@
         <v>44423</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6027,7 +6796,7 @@
         <v>44423</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E107" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6039,7 +6808,7 @@
         <v>44423</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6051,7 +6820,7 @@
         <v>44423</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E109" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6063,7 +6832,7 @@
         <v>44423</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6075,7 +6844,7 @@
         <v>44423</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E111" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6087,7 +6856,7 @@
         <v>44423</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6099,7 +6868,7 @@
         <v>44423</v>
       </c>
       <c r="C113" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E113" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6111,7 +6880,7 @@
         <v>44423</v>
       </c>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6123,7 +6892,7 @@
         <v>44423</v>
       </c>
       <c r="C115" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E115" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6135,7 +6904,7 @@
         <v>44423</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6147,7 +6916,7 @@
         <v>44423</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E117" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6159,7 +6928,7 @@
         <v>44423</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6171,7 +6940,7 @@
         <v>44423</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E119" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6183,7 +6952,7 @@
         <v>44423</v>
       </c>
       <c r="C120" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6195,7 +6964,7 @@
         <v>44423</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E121" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6207,7 +6976,7 @@
         <v>44423</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E122" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6219,7 +6988,7 @@
         <v>44423</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E123" s="5" t="str">
         <f>VLOOKUP(Table46[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>

--- a/brunei_covid19_clusters_2021.xlsx
+++ b/brunei_covid19_clusters_2021.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buns/Dropbox/projects/brunei_covid19_clusters_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A6579A-BABB-E942-BB2E-093CA955E378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A9AC9-0274-9446-9955-9E7079A24F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16100" windowHeight="14900" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" activeTab="1" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
   </bookViews>
   <sheets>
     <sheet name="Local_Cases" sheetId="3" r:id="rId1"/>
     <sheet name="Clusters" sheetId="1" r:id="rId2"/>
     <sheet name="New_Cases_Breakdown" sheetId="4" r:id="rId3"/>
-    <sheet name="New_Linked" sheetId="2" r:id="rId4"/>
-    <sheet name="NotUpdated_Unlinked" sheetId="5" r:id="rId5"/>
+    <sheet name="Clusters_Totals" sheetId="6" r:id="rId4"/>
+    <sheet name="New_Linked" sheetId="2" r:id="rId5"/>
+    <sheet name="NotUpdated_Unlinked" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">New_Linked!$A$1:$E$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NotUpdated_Unlinked!$A$1:$F$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Clusters_Totals!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">New_Linked!$A$1:$E$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NotUpdated_Unlinked!$A$1:$F$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{E1C17E59-2863-2A46-AF83-A0CE19DEC607}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hazirah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOH did not give the number for this, but since the local cases totalled in 176, and 88 were part of clusters, the number of unlinked cases must have been the difference between them.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="265">
   <si>
     <t>cluster_name</t>
   </si>
@@ -742,6 +787,93 @@
   </si>
   <si>
     <t>Jaya Hypermart</t>
+  </si>
+  <si>
+    <t>23 Aug 2021</t>
+  </si>
+  <si>
+    <t>https://t.me/govbnofficial/2851</t>
+  </si>
+  <si>
+    <t>est_cluster_size</t>
+  </si>
+  <si>
+    <t>cluster_name2</t>
+  </si>
+  <si>
+    <t>cluster_name3</t>
+  </si>
+  <si>
+    <t>https://t.me/govbnofficial/2880</t>
+  </si>
+  <si>
+    <t>https://t.me/govbnofficial/2872</t>
+  </si>
+  <si>
+    <t>25 Aug 2021</t>
+  </si>
+  <si>
+    <t>24 Aug 2021</t>
+  </si>
+  <si>
+    <t>[Unspecified Cluster]</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3806</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3807</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3808</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3809</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3810</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3811</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3812</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3813</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3814</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3815</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3816</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3817</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3818</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3819</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3820</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3821</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3822</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3823</t>
+  </si>
+  <si>
+    <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3824</t>
   </si>
 </sst>
 </file>
@@ -751,7 +883,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -777,6 +909,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -812,7 +957,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
@@ -820,13 +968,13 @@
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
@@ -851,12 +999,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D18" totalsRowCount="1">
-  <autoFilter ref="A1:D17" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D21" totalsRowCount="1">
+  <autoFilter ref="A1:D20" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{C8219F84-41B4-4543-970C-AC240178CAAB}" name="new_cases_local" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{0B89804C-1CE2-B54F-9742-6E80801137AF}" name="source_url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -864,14 +1012,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H137" totalsRowCount="1">
-  <autoFilter ref="A1:H136" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H169" totalsRowCount="1">
+  <autoFilter ref="A1:H168" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H168">
+    <sortCondition descending="1" ref="A1:A168"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FD55AB48-86EA-6B44-859E-42B3D99DA7D0}" name="cluster_name"/>
     <tableColumn id="3" xr3:uid="{F3E27EF3-3744-034A-9633-177D4B2A7666}" name="previous_cluster_name"/>
     <tableColumn id="4" xr3:uid="{FA5A0D2F-BDB2-E444-BDC8-B89AEC5370BE}" name="new_cases" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{7108E558-15B0-5E4C-A80E-FC8EBC11D432}" name="source_url1"/>
     <tableColumn id="7" xr3:uid="{4C4321BC-9B94-014F-97AB-E3BE8CCD396B}" name="source_url2"/>
     <tableColumn id="8" xr3:uid="{E259B1DE-B69C-5C47-8027-BA10CFD2EBBE}" name="new_cluster" totalsRowFunction="count"/>
@@ -881,10 +1032,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I18" totalsRowCount="1">
-  <autoFilter ref="A1:I17" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I21" totalsRowCount="1">
+  <autoFilter ref="A1:I20" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8C5D9FA-8E9D-8545-9981-54854FE541D8}" name="date" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B8C5D9FA-8E9D-8545-9981-54854FE541D8}" name="date" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{29F6D0CD-21FC-2D43-AD75-290F8F2D80F2}" name="case_no_start"/>
     <tableColumn id="3" xr3:uid="{07A29089-AC57-974B-B586-DB389B72504E}" name="case_no_end"/>
     <tableColumn id="4" xr3:uid="{2323FEAD-BA39-1F4B-A64F-C1CE345C6526}" name="new_total_cases" totalsRowFunction="sum"/>
@@ -894,7 +1045,7 @@
     </tableColumn>
     <tableColumn id="7" xr3:uid="{BC13AC45-A932-EA43-91A6-E6046EBE0E6E}" name="new_unlinked_cases" totalsRowFunction="sum"/>
     <tableColumn id="8" xr3:uid="{9E8AED9A-7E3C-5549-8CCB-B32FFEA47188}" name="prev_unlinked_now_linked" totalsRowFunction="sum"/>
-    <tableColumn id="9" xr3:uid="{FD88F222-E9C6-4A47-AED8-6A931ABEAD96}" name="source_url" totalsRowFunction="count" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{FD88F222-E9C6-4A47-AED8-6A931ABEAD96}" name="source_url" totalsRowFunction="count" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -903,13 +1054,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E359D52-C057-0F41-8002-6AF09123BA7B}" name="Table4" displayName="Table4" ref="A1:E42" totalsRowCount="1">
-  <autoFilter ref="A1:E41" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E33">
-    <sortCondition ref="C1:C41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{48470B76-3457-6F43-AF6D-F0F948D355BE}" name="Tbl_Cluster_Totals" displayName="Tbl_Cluster_Totals" ref="A1:D38" totalsRowCount="1">
+  <autoFilter ref="A1:D37" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+    <sortCondition ref="A1:A36"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="8" xr3:uid="{3472DA4A-623F-9A4F-AFBD-B9162F4C10C4}" name="cluster_name" totalsRowLabel="Total"/>
+    <tableColumn id="10" xr3:uid="{3DE63D44-7B53-6C4B-A4AA-1443F96251FC}" name="cluster_name2"/>
+    <tableColumn id="11" xr3:uid="{CF6FE236-7281-184E-A2A5-78E2629FD6C7}" name="cluster_name3"/>
+    <tableColumn id="9" xr3:uid="{F6CB42B1-FA1E-C24B-A154-A3B3A758A87B}" name="est_cluster_size" totalsRowFunction="sum" dataDxfId="4">
+      <calculatedColumnFormula>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E359D52-C057-0F41-8002-6AF09123BA7B}" name="Table4" displayName="Table4" ref="A1:E45" totalsRowCount="1">
+  <autoFilter ref="A1:E44" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E36">
+    <sortCondition ref="C1:C44"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" totalsRowLabel="Total" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" totalsRowLabel="Total" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{650FFC6D-6931-674A-AA81-6A7327C1CB44}" name="case_no" totalsRowFunction="count"/>
     <tableColumn id="4" xr3:uid="{F1223669-1683-D24C-862B-34273155D9DC}" name="cluster"/>
     <tableColumn id="5" xr3:uid="{9392D9B5-12E7-6A4F-B195-380B3DA016DB}" name="source_url1"/>
@@ -919,11 +1088,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABA12C8B-11EC-4B45-A79B-AC7933D01534}" name="Table46" displayName="Table46" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{855B1941-9DEC-B744-ACF2-4C0B7972054B}" name="date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{855B1941-9DEC-B744-ACF2-4C0B7972054B}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{9380F812-B3DE-CE4D-BB2D-0746549A51BA}" name="case_no"/>
     <tableColumn id="3" xr3:uid="{299EFDA1-6D5C-274C-914D-71C74D7383DB}" name="unlinked_case_no"/>
     <tableColumn id="4" xr3:uid="{4081AC17-B858-3B49-BD3D-2E83C2520C6E}" name="cluster"/>
@@ -1231,9 +1400,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A6B8-87CC-554B-9DA1-2DFB2BF01927}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1260,244 +1429,289 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(A2,Tbl_Case_No[],6,FALSE)</f>
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44429</v>
+        <v>44432</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(A3,Tbl_Case_No[],6,FALSE)</f>
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(A4,Tbl_Case_No[],6,FALSE)</f>
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(A5,Tbl_Case_No[],6,FALSE)</f>
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(A6,Tbl_Case_No[],6,FALSE)</f>
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(A7,Tbl_Case_No[],6,FALSE)</f>
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B8">
         <f>VLOOKUP(A8,Tbl_Case_No[],6,FALSE)</f>
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="B9">
         <f>VLOOKUP(A9,Tbl_Case_No[],6,FALSE)</f>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <f>VLOOKUP(A10,Tbl_Case_No[],6,FALSE)</f>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <f>VLOOKUP(A11,Tbl_Case_No[],6,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44420</v>
+        <v>44423</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <f>VLOOKUP(A12,Tbl_Case_No[],6,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44418</v>
+        <v>44421</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44416</v>
+        <v>44419</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>44415</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>231</v>
       </c>
-      <c r="B18">
+      <c r="B21">
         <f>SUBTOTAL(109,Tbl_Local_Cases[new_cases_local])</f>
-        <v>1404</v>
+        <v>1791</v>
       </c>
     </row>
   </sheetData>
@@ -1511,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B37A9-E51B-0E49-8E6A-54CF922008BF}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1554,372 +1768,417 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F3" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
+        <v>44433</v>
+      </c>
+      <c r="B9">
+        <v>477</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G10" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B13">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G14" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B15">
-        <v>583</v>
+        <v>44433</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G15" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G16" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B17" t="s">
-        <v>234</v>
+        <v>44433</v>
+      </c>
+      <c r="B17">
+        <v>1640</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G17" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B18">
-        <v>1328</v>
+        <v>44433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F18" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G18" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G19" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B20">
-        <v>362</v>
+        <v>1597</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1927,1856 +2186,1913 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>220</v>
+        <v>44432</v>
+      </c>
+      <c r="B21">
+        <v>1640</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F21" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>218</v>
+        <v>44432</v>
+      </c>
+      <c r="B22" t="s">
+        <v>245</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="G22" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>179</v>
+        <v>44431</v>
+      </c>
+      <c r="B23">
+        <v>418</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>44431</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44429</v>
+        <v>44431</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B26">
-        <v>583</v>
+        <v>44431</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B27">
-        <v>1385</v>
+        <v>44431</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C29" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F32" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B33" t="s">
         <v>91</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F33" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+      <c r="G33">
+        <f>SUMIF(Tbl_Clusters[cluster_name],"The Mall",Tbl_Clusters[new_cases])</f>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
+        <v>44430</v>
+      </c>
+      <c r="B34">
+        <v>362</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F34" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" t="s">
-        <v>92</v>
+        <v>44430</v>
+      </c>
+      <c r="B35">
+        <v>477</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F35" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
+        <v>44430</v>
+      </c>
+      <c r="B36">
+        <v>583</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F36" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B37" t="s">
-        <v>179</v>
+        <v>44430</v>
+      </c>
+      <c r="B37">
+        <v>1328</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F37" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B38">
-        <v>583</v>
+        <v>44430</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F38" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E39" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F39" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F40" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B41">
-        <v>884</v>
+        <v>44430</v>
+      </c>
+      <c r="B41" t="s">
+        <v>218</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E41" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F41" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H41" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D42">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F42" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E43" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F43" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F44" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E45" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F45" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>22 Aug 2021</v>
+      </c>
+      <c r="F48" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>22 Aug 2021</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>22 Aug 2021</v>
+      </c>
+      <c r="F50" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B51" t="s">
         <v>91</v>
       </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F48" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B49">
-        <v>477</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F49" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F50" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
       <c r="D51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B52">
-        <v>573</v>
+        <v>44430</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B53">
         <v>583</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-      <c r="H53" t="b">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B54">
+        <v>1385</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F54" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B54">
-        <v>477</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F54" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
+        <v>44429</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E55" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F55" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B56" t="s">
-        <v>92</v>
+        <v>44429</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F56" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B57" t="s">
+        <v>44429</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F57" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F58" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F59" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B60">
+        <v>583</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F60" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B61">
+        <v>884</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F62" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B64" t="s">
         <v>179</v>
       </c>
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F57" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B58" t="s">
-        <v>180</v>
-      </c>
-      <c r="C58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58">
-        <v>22</v>
-      </c>
-      <c r="E58" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F58" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>16</v>
-      </c>
-      <c r="E59" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F59" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F60" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F61" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F62" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B63" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F63" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
       <c r="D64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>218</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
       </c>
       <c r="D65">
-        <v>11</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F65" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>221</v>
+      </c>
+      <c r="C66" t="s">
+        <v>180</v>
       </c>
       <c r="D66">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="E66" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F66" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>220</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
       </c>
       <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F67" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>219</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
       </c>
       <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E68" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F68" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F69" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>93</v>
+      <c r="E70" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F70" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F71" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B72" s="7">
-        <v>635</v>
+        <v>44428</v>
+      </c>
+      <c r="B72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" t="s">
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="E72" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F72" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E73" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F73" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B74" t="s">
-        <v>91</v>
+        <v>44427</v>
+      </c>
+      <c r="B74">
+        <v>477</v>
       </c>
       <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="E74" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F74" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
-      </c>
-      <c r="H74" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B75" t="s">
-        <v>92</v>
+        <v>44427</v>
+      </c>
+      <c r="B75">
+        <v>573</v>
       </c>
       <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="E75" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F75" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B76" t="s">
-        <v>11</v>
+        <v>44427</v>
+      </c>
+      <c r="B76">
+        <v>583</v>
       </c>
       <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E76" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F76" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F77" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E78" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F78" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D79">
-        <v>10</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F79" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
+      </c>
+      <c r="F80" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81">
+        <v>98</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F80" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F81" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B82">
-        <v>477</v>
-      </c>
       <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F82" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>94</v>
+      <c r="E83" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F83" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B84" s="7">
-        <v>635</v>
+        <v>44427</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
       </c>
       <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
+      </c>
+      <c r="F84" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B86">
+        <v>477</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F86" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
         <v>2</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H84" t="b">
+      <c r="E87" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F88" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90">
+        <v>22</v>
+      </c>
+      <c r="E90" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F90" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F91" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F92" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H85" t="b">
+      <c r="E94" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F94" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F95" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86">
-        <v>29</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B87">
-        <v>477</v>
-      </c>
-      <c r="D87">
-        <v>6</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F88" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F89" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
         <v>1</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F90" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B91" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B92" s="1">
-        <v>495</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F92" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B93" s="1">
-        <v>535</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F93" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B94" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F94" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95">
-        <v>7</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F95" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B96">
-        <v>477</v>
-      </c>
-      <c r="D96">
-        <v>4</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F96" t="s">
-        <v>75</v>
+      <c r="E96" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F96" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B97" t="s">
-        <v>11</v>
+        <v>44425</v>
+      </c>
+      <c r="B97" s="7">
+        <v>635</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F97" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F97" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F98" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F99" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F100" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F100" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F101" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F102" t="s">
-        <v>75</v>
-      </c>
-      <c r="H102" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="F102" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C103" s="1">
-        <v>499</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F103" t="s">
-        <v>75</v>
-      </c>
-      <c r="H103" t="b">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="F103" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B104" s="1">
-        <v>499</v>
+        <v>44425</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="F104" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="F105" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F106" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+      <c r="H106" t="b">
         <v>1</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="F107" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
+        <v>44424</v>
+      </c>
+      <c r="B108">
+        <v>477</v>
       </c>
       <c r="D108">
-        <v>3</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
+        <v>44424</v>
+      </c>
+      <c r="B109" s="7">
+        <v>635</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s">
-        <v>74</v>
+      <c r="E109" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B110">
-        <v>451</v>
+        <v>44424</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>3</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s">
-        <v>74</v>
-      </c>
-      <c r="H110" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B111">
-        <v>477</v>
+        <v>44424</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F111" t="s">
-        <v>74</v>
-      </c>
-      <c r="H111" t="b">
-        <v>1</v>
+      <c r="E111" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F111" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D112">
-        <v>21</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F112" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F113" t="s">
-        <v>39</v>
+      <c r="E113" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F114" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D115">
-        <v>2</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F115" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F115" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F116" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D117">
-        <v>6</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F117" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
@@ -3784,39 +4100,38 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B118" s="1">
-        <v>499</v>
+        <v>44423</v>
+      </c>
+      <c r="B118">
+        <v>477</v>
       </c>
       <c r="D118">
-        <v>3</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F118" t="s">
-        <v>39</v>
-      </c>
-      <c r="H118" t="b">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B119" t="s">
-        <v>38</v>
+        <v>44423</v>
+      </c>
+      <c r="B119" s="1">
+        <v>495</v>
       </c>
       <c r="D119">
-        <v>3</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F119" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -3824,277 +4139,238 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
+        <v>44423</v>
+      </c>
+      <c r="B120" s="1">
+        <v>535</v>
       </c>
       <c r="D120">
-        <v>25</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F120" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>44419</v>
+        <v>44423</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D121">
-        <v>8</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>44419</v>
+        <v>44423</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D122">
         <v>3</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
-      <c r="H122" t="b">
-        <v>0</v>
+      <c r="E122" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F122" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
+        <v>44423</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F123" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B124" t="s">
+        <v>44423</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D124">
         <v>4</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
-      <c r="H124" t="b">
-        <v>1</v>
+      <c r="E124" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F124" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>44418</v>
-      </c>
-      <c r="B125" t="s">
-        <v>6</v>
+        <v>44423</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D125">
-        <v>9</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" t="b">
         <v>1</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F125" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>44418</v>
-      </c>
-      <c r="B126" t="s">
+        <v>44422</v>
+      </c>
+      <c r="B126">
+        <v>477</v>
+      </c>
+      <c r="D126">
         <v>4</v>
       </c>
-      <c r="D126">
-        <v>8</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D127">
         <v>4</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>77</v>
+      </c>
+      <c r="C129" s="1">
+        <v>499</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
-      <c r="H130" t="b">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D132">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
@@ -4102,114 +4378,730 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
-      <c r="H133" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>44416</v>
+        <v>44422</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
-      <c r="H134" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>44416</v>
+        <v>44422</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>44415</v>
-      </c>
-      <c r="B136" t="s">
-        <v>34</v>
-      </c>
-      <c r="C136" t="s">
-        <v>12</v>
+        <v>44421</v>
+      </c>
+      <c r="B136">
+        <v>451</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H136" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B137">
+        <v>477</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B138" s="1">
+        <v>499</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B140" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>16</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F143" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B144" s="1">
+        <v>499</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" t="s">
+        <v>39</v>
+      </c>
+      <c r="H146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>21</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" t="s">
+        <v>39</v>
+      </c>
+      <c r="H148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>25</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>8</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>9</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>29</v>
+      </c>
+      <c r="H163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>29</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>29</v>
+      </c>
+      <c r="H164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>29</v>
+      </c>
+      <c r="H166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>7</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>29</v>
+      </c>
+      <c r="H167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B168" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F168" t="s">
+        <v>27</v>
+      </c>
+      <c r="G168" t="s">
+        <v>35</v>
+      </c>
+      <c r="H168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>231</v>
       </c>
-      <c r="D137">
+      <c r="D169">
         <f>SUBTOTAL(109,Tbl_Clusters[new_cases])</f>
-        <v>889</v>
-      </c>
-      <c r="H137">
+        <v>1080</v>
+      </c>
+      <c r="H169">
         <f>SUBTOTAL(103,Tbl_Clusters[new_cluster])</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4221,11 +5113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D616A1-1DAC-724C-B8AD-DC0D33396E98}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D616A1-1DAC-724C-B8AD-DC0D33396E98}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4271,525 +5163,1018 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B5" si="0">C3+1</f>
-        <v>1456</v>
+        <f t="shared" ref="B2:B8" si="0">C3+1</f>
+        <v>1984</v>
       </c>
       <c r="C2">
-        <v>1769</v>
+        <v>2159</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D5" si="1">C2-C3</f>
-        <v>314</v>
+        <f t="shared" ref="D2:D8" si="1">C2-C3</f>
+        <v>176</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>D2-E2</f>
-        <v>308</v>
+        <f t="shared" ref="F2:F3" si="2">D2-E2</f>
+        <v>176</v>
       </c>
       <c r="G2">
-        <v>141</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
+        <f>Tbl_Case_No[[#This Row],[new_local_cases]]-88</f>
+        <v>88</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44429</v>
+        <v>44432</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>1334</v>
+        <v>1874</v>
       </c>
       <c r="C3">
-        <v>1455</v>
+        <v>1983</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <f>D3-E3</f>
-        <v>120</v>
-      </c>
-      <c r="G3">
-        <v>79</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1137</v>
+        <v>1770</v>
       </c>
       <c r="C4">
-        <v>1333</v>
+        <v>1873</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F5" si="2">D4-E4</f>
-        <v>197</v>
+        <f>D4-E4</f>
+        <v>104</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>947</v>
+        <v>1456</v>
       </c>
       <c r="C5">
-        <v>1136</v>
+        <v>1769</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f>D5-E5</f>
+        <v>308</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B6">
-        <f>C7+1</f>
-        <v>853</v>
+        <f t="shared" si="0"/>
+        <v>1334</v>
       </c>
       <c r="C6">
-        <v>946</v>
+        <v>1455</v>
       </c>
       <c r="D6">
-        <f>C6-C7</f>
-        <v>94</v>
+        <f t="shared" si="1"/>
+        <v>122</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f>D6-E6</f>
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B7">
-        <f>C8+1</f>
-        <v>788</v>
+        <f t="shared" si="0"/>
+        <v>1137</v>
       </c>
       <c r="C7">
-        <v>852</v>
+        <v>1333</v>
       </c>
       <c r="D7">
-        <f>C7-C8</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>197</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>D7-E7</f>
-        <v>61</v>
+        <f t="shared" ref="F7:F8" si="3">D7-E7</f>
+        <v>197</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B8">
-        <f>C9+1</f>
-        <v>724</v>
+        <f t="shared" si="0"/>
+        <v>947</v>
       </c>
       <c r="C8">
-        <v>787</v>
+        <v>1136</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D16" si="3">C8-C9</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F10" si="4">D8-E8</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="B9">
         <f>C10+1</f>
-        <v>641</v>
+        <v>853</v>
       </c>
       <c r="C9">
-        <v>723</v>
+        <v>946</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
-        <v>83</v>
+        <f>C9-C10</f>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
-        <v>79</v>
+        <f>D9-E9</f>
+        <v>94</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B10">
         <f>C11+1</f>
+        <v>788</v>
+      </c>
+      <c r="C10">
+        <v>852</v>
+      </c>
+      <c r="D10">
+        <f>C10-C11</f>
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>D10-E10</f>
+        <v>61</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B11">
+        <f>C12+1</f>
+        <v>724</v>
+      </c>
+      <c r="C11">
+        <v>787</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D19" si="4">C11-C12</f>
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F13" si="5">D11-E11</f>
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B12">
+        <f>C13+1</f>
+        <v>641</v>
+      </c>
+      <c r="C12">
+        <v>723</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B13">
+        <f>C14+1</f>
         <v>599</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>640</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D13">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G10">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I13" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2706</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>44421</v>
       </c>
-      <c r="B11">
-        <f t="shared" ref="B11:B16" si="5">C12+1</f>
+      <c r="B14">
+        <f t="shared" ref="B14:B19" si="6">C15+1</f>
         <v>544</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>598</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
+      <c r="D14">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F17" si="6">D11-E11</f>
+      <c r="F14">
+        <f t="shared" ref="F14:F20" si="7">D14-E14</f>
         <v>54</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>22</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I14" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2687</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44420</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="5"/>
+      <c r="B15">
+        <f t="shared" si="6"/>
         <v>495</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>543</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
+      <c r="D15">
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="6"/>
+      <c r="F15">
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I15" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2668</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44419</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="5"/>
+      <c r="B16">
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>494</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
+      <c r="D16">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="6"/>
+      <c r="F16">
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="G13">
+      <c r="G16">
         <v>13</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I16" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2639</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44418</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="5"/>
+      <c r="B17">
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>440</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
+      <c r="D17">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="6"/>
+      <c r="F17">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I17" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2626</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>44417</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="5"/>
+      <c r="B18">
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>406</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
+      <c r="D18">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="6"/>
+      <c r="F18">
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="G15">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I18" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2595</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>44416</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="5"/>
+      <c r="B19">
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>364</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
+      <c r="D19">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="6"/>
+      <c r="F19">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I19" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2557</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>44415</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>340</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>347</v>
       </c>
-      <c r="D17">
-        <f>C17-B17+1</f>
+      <c r="D20">
+        <f>C20-B20+1</f>
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
+      <c r="F20">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I20" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2512</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21">
+        <f>SUBTOTAL(109,Tbl_Case_No[new_total_cases])</f>
+        <v>1820</v>
+      </c>
+      <c r="E21">
+        <f>SUBTOTAL(109,Tbl_Case_No[new_import_cases])</f>
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <f>SUBTOTAL(109,Tbl_Case_No[new_local_cases])</f>
+        <v>1791</v>
+      </c>
+      <c r="G21">
+        <f>SUBTOTAL(109,Tbl_Case_No[new_unlinked_cases])</f>
+        <v>708</v>
+      </c>
+      <c r="H21">
+        <f>SUBTOTAL(109,Tbl_Case_No[prev_unlinked_now_linked])</f>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f>SUBTOTAL(103,Tbl_Case_No[source_url])</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B62DA-41EB-0D40-9B46-F05319D6FD2E}">
+  <dimension ref="A1:D177"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>362</v>
+      </c>
+      <c r="D2">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>418</v>
+      </c>
+      <c r="D3">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>451</v>
+      </c>
+      <c r="D4">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>477</v>
+      </c>
+      <c r="D5">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>495</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>535</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>573</v>
+      </c>
+      <c r="D8">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>583</v>
+      </c>
+      <c r="D9">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>635</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>884</v>
+      </c>
+      <c r="D11">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1328</v>
+      </c>
+      <c r="D12">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1385</v>
+      </c>
+      <c r="D13">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1597</v>
+      </c>
+      <c r="D14" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1640</v>
+      </c>
+      <c r="D15" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <v>499</v>
+      </c>
+      <c r="D18">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>231</v>
       </c>
-      <c r="D18">
-        <f>SUBTOTAL(109,Tbl_Case_No[new_total_cases])</f>
-        <v>1430</v>
-      </c>
-      <c r="E18">
-        <f>SUBTOTAL(109,Tbl_Case_No[new_import_cases])</f>
-        <v>26</v>
-      </c>
-      <c r="F18">
-        <f>SUBTOTAL(109,Tbl_Case_No[new_local_cases])</f>
-        <v>1404</v>
-      </c>
-      <c r="G18">
-        <f>SUBTOTAL(109,Tbl_Case_No[new_unlinked_cases])</f>
-        <v>504</v>
-      </c>
-      <c r="H18">
-        <f>SUBTOTAL(109,Tbl_Case_No[prev_unlinked_now_linked])</f>
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <f>SUBTOTAL(103,Tbl_Case_No[source_url])</f>
-        <v>16</v>
-      </c>
-    </row>
+      <c r="D38">
+        <f>SUBTOTAL(109,Tbl_Cluster_Totals[est_cluster_size])</f>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="175" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4797,12 +6182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4830,47 +6215,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B2">
-        <v>1056</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
+        <v>1597</v>
+      </c>
+      <c r="C2">
+        <v>1597</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B3">
-        <v>362</v>
+        <v>1640</v>
       </c>
       <c r="C3">
-        <v>362</v>
+        <v>1640</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B4">
-        <v>650</v>
-      </c>
-      <c r="C4" t="s">
-        <v>235</v>
+        <v>418</v>
+      </c>
+      <c r="C4">
+        <v>418</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4878,10 +6263,10 @@
         <v>44430</v>
       </c>
       <c r="B5">
-        <v>415</v>
-      </c>
-      <c r="C5">
-        <v>362</v>
+        <v>1056</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -4890,178 +6275,178 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44421</v>
+        <v>44430</v>
       </c>
       <c r="B6">
-        <v>451</v>
+        <v>362</v>
       </c>
       <c r="C6">
-        <v>451</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
+        <v>362</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44421</v>
+        <v>44430</v>
       </c>
       <c r="B7">
-        <v>477</v>
-      </c>
-      <c r="C7">
-        <v>477</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
+        <v>650</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B8">
-        <v>583</v>
+        <v>415</v>
       </c>
       <c r="C8">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="D8" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B9">
+        <v>451</v>
+      </c>
+      <c r="C9">
+        <v>451</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B10">
+        <v>477</v>
+      </c>
+      <c r="C10">
+        <v>477</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B11">
+        <v>583</v>
+      </c>
+      <c r="C11">
+        <v>483</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>44426</v>
       </c>
-      <c r="B9">
+      <c r="B12">
         <v>674</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D12" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>44425</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>762</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>44425</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>597</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44423</v>
       </c>
-      <c r="B12">
+      <c r="B15">
         <v>646</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>495</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D15" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44423</v>
       </c>
-      <c r="B13">
+      <c r="B16">
         <v>652</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>495</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D16" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44423</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>495</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>495</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D17" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B15">
-        <v>774</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B16">
-        <v>776</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B17">
-        <v>630</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5069,10 +6454,10 @@
         <v>44424</v>
       </c>
       <c r="B18">
-        <v>755</v>
-      </c>
-      <c r="C18">
-        <v>573</v>
+        <v>774</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
       </c>
       <c r="D18" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5084,10 +6469,10 @@
         <v>44424</v>
       </c>
       <c r="B19">
-        <v>573</v>
-      </c>
-      <c r="C19">
-        <v>573</v>
+        <v>776</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5096,46 +6481,47 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B20">
-        <v>618</v>
-      </c>
-      <c r="C20">
-        <v>495</v>
+        <v>630</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B21">
-        <v>499</v>
+        <v>755</v>
       </c>
       <c r="C21">
-        <v>499</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
+        <v>573</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B22">
-        <v>649</v>
+        <v>573</v>
       </c>
       <c r="C22">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5143,10 +6529,10 @@
         <v>44423</v>
       </c>
       <c r="B23">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="C23">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="D23" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -5155,89 +6541,91 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B24">
+        <v>499</v>
+      </c>
+      <c r="C24">
+        <v>499</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>44423</v>
       </c>
-      <c r="B24">
-        <v>616</v>
-      </c>
-      <c r="C24">
+      <c r="B25">
+        <v>649</v>
+      </c>
+      <c r="C25">
         <v>535</v>
       </c>
-      <c r="D24" s="5" t="str">
+      <c r="D25" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B26">
+        <v>535</v>
+      </c>
+      <c r="C26">
+        <v>535</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B27">
+        <v>616</v>
+      </c>
+      <c r="C27">
+        <v>535</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>44424</v>
       </c>
-      <c r="B25">
+      <c r="B28">
         <v>765</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>635</v>
       </c>
-      <c r="D25" s="5" t="str">
+      <c r="D28" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>44424</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <v>766</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>635</v>
       </c>
-      <c r="D26" s="5" t="str">
+      <c r="D29" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B27">
-        <v>432</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B28">
-        <v>566</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B29">
-        <v>563</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5245,197 +6633,239 @@
         <v>44422</v>
       </c>
       <c r="B30">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B31">
+        <v>566</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B32">
+        <v>563</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B33">
+        <v>448</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>44424</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>635</v>
       </c>
-      <c r="C31">
+      <c r="C34">
         <v>635</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D34" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>44428</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>884</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>884</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D35" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>44430</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>1328</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>1328</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D36" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B34">
-        <v>441</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B35">
-        <v>450</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B36">
-        <v>423</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B37">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B38">
-        <v>363</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B39">
-        <v>364</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="B40">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B41">
-        <v>345</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
+        <v>363</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B42">
+        <v>364</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B43">
+        <v>346</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B44">
+        <v>345</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>231</v>
       </c>
-      <c r="B42">
+      <c r="B45">
         <f>SUBTOTAL(103,Table4[case_no])</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5447,7 +6877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75831BD8-93C1-FA4A-97F4-C6FEDA0B4320}">
   <dimension ref="A1:F201"/>
   <sheetViews>

--- a/brunei_covid19_clusters_2021.xlsx
+++ b/brunei_covid19_clusters_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buns/Dropbox/projects/brunei_covid19_clusters_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A9AC9-0274-9446-9955-9E7079A24F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64252CA-3C61-F046-8044-24EBCA8A0849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" activeTab="1" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
+    <workbookView xWindow="9120" yWindow="460" windowWidth="18200" windowHeight="14900" activeTab="3" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
   </bookViews>
   <sheets>
     <sheet name="Local_Cases" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="NotUpdated_Unlinked" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$197</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Clusters_Totals!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">New_Linked!$A$1:$E$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">New_Linked!$A$1:$E$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NotUpdated_Unlinked!$A$1:$F$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{E1C17E59-2863-2A46-AF83-A0CE19DEC607}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{E1C17E59-2863-2A46-AF83-A0CE19DEC607}">
       <text>
         <r>
           <rPr>
@@ -78,8 +78,51 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{FEC29FC4-C2FB-1140-97DA-8487C5EAF1ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hazirah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Refers to initial total before the cluster was broken down into sub-clusters</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="270">
   <si>
     <t>cluster_name</t>
   </si>
@@ -874,6 +917,21 @@
   </si>
   <si>
     <t>https://www.rtbgo.bn/play?scheme=205&amp;p_type=true&amp;id=3752&amp;eps_id=3824</t>
+  </si>
+  <si>
+    <t>26 Aug 2021</t>
+  </si>
+  <si>
+    <t>PAS (Aker)</t>
+  </si>
+  <si>
+    <t>https://t.me/govbnofficial/2891</t>
+  </si>
+  <si>
+    <t>27 Aug 2021</t>
+  </si>
+  <si>
+    <t>https://t.me/govbnofficial/2899</t>
   </si>
 </sst>
 </file>
@@ -965,13 +1023,13 @@
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
@@ -999,12 +1057,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D21" totalsRowCount="1">
-  <autoFilter ref="A1:D20" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D23" totalsRowCount="1">
+  <autoFilter ref="A1:D22" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{C8219F84-41B4-4543-970C-AC240178CAAB}" name="new_cases_local" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{0B89804C-1CE2-B54F-9742-6E80801137AF}" name="source_url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1012,17 +1070,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H169" totalsRowCount="1">
-  <autoFilter ref="A1:H168" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H168">
-    <sortCondition descending="1" ref="A1:A168"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H198" totalsRowCount="1">
+  <autoFilter ref="A1:H197" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H197">
+    <sortCondition descending="1" ref="A1:A197"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{FD55AB48-86EA-6B44-859E-42B3D99DA7D0}" name="cluster_name"/>
     <tableColumn id="3" xr3:uid="{F3E27EF3-3744-034A-9633-177D4B2A7666}" name="previous_cluster_name"/>
     <tableColumn id="4" xr3:uid="{FA5A0D2F-BDB2-E444-BDC8-B89AEC5370BE}" name="new_cases" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{7108E558-15B0-5E4C-A80E-FC8EBC11D432}" name="source_url1"/>
     <tableColumn id="7" xr3:uid="{4C4321BC-9B94-014F-97AB-E3BE8CCD396B}" name="source_url2"/>
     <tableColumn id="8" xr3:uid="{E259B1DE-B69C-5C47-8027-BA10CFD2EBBE}" name="new_cluster" totalsRowFunction="count"/>
@@ -1032,8 +1090,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I21" totalsRowCount="1">
-  <autoFilter ref="A1:I20" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I23" totalsRowCount="1">
+  <autoFilter ref="A1:I22" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8C5D9FA-8E9D-8545-9981-54854FE541D8}" name="date" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{29F6D0CD-21FC-2D43-AD75-290F8F2D80F2}" name="case_no_start"/>
@@ -1054,16 +1112,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{48470B76-3457-6F43-AF6D-F0F948D355BE}" name="Tbl_Cluster_Totals" displayName="Tbl_Cluster_Totals" ref="A1:D38" totalsRowCount="1">
-  <autoFilter ref="A1:D37" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
-    <sortCondition ref="A1:A36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{48470B76-3457-6F43-AF6D-F0F948D355BE}" name="Tbl_Cluster_Totals" displayName="Tbl_Cluster_Totals" ref="A1:D41" totalsRowCount="1">
+  <autoFilter ref="A1:D40" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+    <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="8" xr3:uid="{3472DA4A-623F-9A4F-AFBD-B9162F4C10C4}" name="cluster_name" totalsRowLabel="Total"/>
     <tableColumn id="10" xr3:uid="{3DE63D44-7B53-6C4B-A4AA-1443F96251FC}" name="cluster_name2"/>
     <tableColumn id="11" xr3:uid="{CF6FE236-7281-184E-A2A5-78E2629FD6C7}" name="cluster_name3"/>
-    <tableColumn id="9" xr3:uid="{F6CB42B1-FA1E-C24B-A154-A3B3A758A87B}" name="est_cluster_size" totalsRowFunction="sum" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{F6CB42B1-FA1E-C24B-A154-A3B3A758A87B}" name="est_cluster_size" totalsRowFunction="sum" dataDxfId="2">
       <calculatedColumnFormula>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1072,10 +1130,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E359D52-C057-0F41-8002-6AF09123BA7B}" name="Table4" displayName="Table4" ref="A1:E45" totalsRowCount="1">
-  <autoFilter ref="A1:E44" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E36">
-    <sortCondition ref="C1:C44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E359D52-C057-0F41-8002-6AF09123BA7B}" name="Table4" displayName="Table4" ref="A1:E48" totalsRowCount="1">
+  <autoFilter ref="A1:E47" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E39">
+    <sortCondition ref="C1:C47"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" totalsRowLabel="Total" dataDxfId="3"/>
@@ -1092,7 +1150,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABA12C8B-11EC-4B45-A79B-AC7933D01534}" name="Table46" displayName="Table46" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{855B1941-9DEC-B744-ACF2-4C0B7972054B}" name="date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{855B1941-9DEC-B744-ACF2-4C0B7972054B}" name="date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9380F812-B3DE-CE4D-BB2D-0746549A51BA}" name="case_no"/>
     <tableColumn id="3" xr3:uid="{299EFDA1-6D5C-274C-914D-71C74D7383DB}" name="unlinked_case_no"/>
     <tableColumn id="4" xr3:uid="{4081AC17-B858-3B49-BD3D-2E83C2520C6E}" name="cluster"/>
@@ -1400,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A6B8-87CC-554B-9DA1-2DFB2BF01927}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1429,289 +1487,319 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(A2,Tbl_Case_No[],6,FALSE)</f>
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(A3,Tbl_Case_No[],6,FALSE)</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(A4,Tbl_Case_No[],6,FALSE)</f>
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(A5,Tbl_Case_No[],6,FALSE)</f>
-        <v>308</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44429</v>
+        <v>44431</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(A6,Tbl_Case_No[],6,FALSE)</f>
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(A7,Tbl_Case_No[],6,FALSE)</f>
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B8">
         <f>VLOOKUP(A8,Tbl_Case_No[],6,FALSE)</f>
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B9">
         <f>VLOOKUP(A9,Tbl_Case_No[],6,FALSE)</f>
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>215</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B10">
         <f>VLOOKUP(A10,Tbl_Case_No[],6,FALSE)</f>
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="B11">
         <f>VLOOKUP(A11,Tbl_Case_No[],6,FALSE)</f>
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44423</v>
+        <v>44425</v>
       </c>
       <c r="B12">
         <f>VLOOKUP(A12,Tbl_Case_No[],6,FALSE)</f>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <f>VLOOKUP(A13,Tbl_Case_No[],6,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44421</v>
+        <v>44423</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <f>VLOOKUP(A14,Tbl_Case_No[],6,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44419</v>
+        <v>44421</v>
       </c>
       <c r="B16">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B18">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>44415</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>231</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <f>SUBTOTAL(109,Tbl_Local_Cases[new_cases_local])</f>
-        <v>1791</v>
+        <v>2009</v>
       </c>
     </row>
   </sheetData>
@@ -1725,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B37A9-E51B-0E49-8E6A-54CF922008BF}">
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,993 +1856,974 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
+        <v>44435</v>
+      </c>
+      <c r="B2">
+        <v>2262</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G2" t="s">
-        <v>247</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F3" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G3" t="s">
-        <v>248</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G4" t="s">
-        <v>249</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G5" t="s">
-        <v>250</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B6" t="s">
-        <v>235</v>
+        <v>44435</v>
+      </c>
+      <c r="B6">
+        <v>1597</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G6" t="s">
-        <v>251</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G7" t="s">
-        <v>252</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
+        <v>44435</v>
+      </c>
+      <c r="B8">
+        <v>1888</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G8" t="s">
-        <v>253</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B9">
-        <v>477</v>
+        <v>44435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G9" t="s">
-        <v>254</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G10" t="s">
-        <v>255</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G11" t="s">
-        <v>256</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G12" t="s">
-        <v>257</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B13">
-        <v>535</v>
+        <v>44435</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G13" t="s">
-        <v>258</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G14" t="s">
-        <v>259</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G15" t="s">
-        <v>260</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G16" t="s">
-        <v>261</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B17">
-        <v>1640</v>
+        <v>44434</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G17" t="s">
-        <v>262</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F18" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G18" t="s">
-        <v>263</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G19" t="s">
-        <v>264</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B20">
-        <v>1597</v>
+        <v>44434</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B21">
-        <v>1640</v>
+        <v>44434</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F21" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
-      </c>
-      <c r="G22" t="s">
-        <v>246</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B23">
-        <v>418</v>
+        <v>44434</v>
+      </c>
+      <c r="B23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B26" t="s">
-        <v>220</v>
+        <v>44434</v>
+      </c>
+      <c r="B26">
+        <v>1640</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
+        <v>44434</v>
+      </c>
+      <c r="B28">
+        <v>451</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
+        <v>44434</v>
+      </c>
+      <c r="B29">
+        <v>1888</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B30" t="s">
-        <v>235</v>
+        <v>44434</v>
+      </c>
+      <c r="B30">
+        <v>2085</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G31" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F36" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B38">
+        <v>477</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F38" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F40" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
-      </c>
-      <c r="F32" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
-      </c>
-      <c r="F33" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
-      </c>
-      <c r="G33">
-        <f>SUMIF(Tbl_Clusters[cluster_name],"The Mall",Tbl_Clusters[new_cases])</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B34">
-        <v>362</v>
-      </c>
-      <c r="D34">
+      <c r="D41">
         <v>1</v>
       </c>
-      <c r="E34" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F34" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H34" t="b">
+      <c r="E41" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F41" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B42">
+        <v>535</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B35">
-        <v>477</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F35" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B36">
-        <v>583</v>
-      </c>
-      <c r="D36">
+      <c r="E42" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>25 Aug 2021</v>
+      </c>
+      <c r="F42" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
-      <c r="E36" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F36" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B37">
-        <v>1328</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F37" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F38" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F39" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40">
-        <v>14</v>
-      </c>
-      <c r="E40" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F40" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B41" t="s">
-        <v>218</v>
-      </c>
-      <c r="D41">
-        <v>17</v>
-      </c>
-      <c r="E41" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F41" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F42" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>34</v>
-      </c>
       <c r="E43" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F43" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F44" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F45" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
+        <v>44433</v>
+      </c>
+      <c r="B46">
+        <v>1640</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F48" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G48" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B49" t="s">
-        <v>234</v>
+        <v>44432</v>
+      </c>
+      <c r="B49">
+        <v>1597</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E49" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F49" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -2762,554 +2831,534 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
+        <v>44432</v>
+      </c>
+      <c r="B50">
+        <v>1640</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F50" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="G51" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
+        <v>44431</v>
+      </c>
+      <c r="B52">
+        <v>418</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B53">
-        <v>583</v>
+        <v>44431</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B54">
-        <v>1385</v>
+        <v>44431</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F54" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
-      </c>
-      <c r="H54" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>179</v>
+        <v>44431</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F55" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>218</v>
+        <v>44431</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F56" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>220</v>
+        <v>44431</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F57" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>44429</v>
+        <v>44431</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F58" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>76</v>
+        <v>44431</v>
+      </c>
+      <c r="B59" t="s">
+        <v>235</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F59" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B60">
-        <v>583</v>
+        <v>44431</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F60" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B61">
-        <v>884</v>
+        <v>44431</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F61" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F62" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+      <c r="G62">
+        <f>SUMIF(Tbl_Clusters[cluster_name],"The Mall",Tbl_Clusters[new_cases])</f>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
+        <v>44430</v>
+      </c>
+      <c r="B63">
+        <v>362</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E63" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F63" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B64" t="s">
-        <v>179</v>
+        <v>44430</v>
+      </c>
+      <c r="B64">
+        <v>477</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B65" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" t="s">
-        <v>180</v>
+        <v>44430</v>
+      </c>
+      <c r="B65">
+        <v>583</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E65" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F65" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C66" t="s">
-        <v>180</v>
+        <v>44430</v>
+      </c>
+      <c r="B66">
+        <v>1328</v>
       </c>
       <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>22 Aug 2021</v>
+      </c>
+      <c r="F66" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="E66" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
-      </c>
-      <c r="F66" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H66" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C67" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F67" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H67" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F68" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H68" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E69" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F69" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F70" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E71" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F71" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F72" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H72" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E73" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F73" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B74">
-        <v>477</v>
+        <v>44430</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F74" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B75">
-        <v>573</v>
+        <v>44430</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E75" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F75" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-      <c r="H75" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B76">
-        <v>583</v>
+        <v>44430</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F76" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -3317,1085 +3366,1143 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F77" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F78" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F79" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>22 Aug 2021</v>
+      </c>
+      <c r="F80" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>22 Aug 2021</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B82">
+        <v>583</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F82" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B83">
+        <v>1385</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D80">
+      <c r="D84">
+        <v>8</v>
+      </c>
+      <c r="E84" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F84" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F86" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="E87" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F88" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B89">
+        <v>583</v>
+      </c>
+      <c r="D89">
         <v>5</v>
       </c>
-      <c r="E80" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F80" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B81" t="s">
-        <v>180</v>
-      </c>
-      <c r="D81">
-        <v>98</v>
-      </c>
-      <c r="E81" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F81" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="E89" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B90">
+        <v>884</v>
+      </c>
+      <c r="D90">
         <v>4</v>
       </c>
-      <c r="D82">
-        <v>6</v>
-      </c>
-      <c r="E82" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F82" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B83" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83">
+      <c r="E90" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F90" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H90" t="b">
         <v>1</v>
       </c>
-      <c r="E83" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F83" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="E84" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F84" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F85" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B86">
-        <v>477</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F86" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B91" t="s">
         <v>11</v>
       </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F87" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F88" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" t="s">
-        <v>77</v>
-      </c>
-      <c r="D89">
-        <v>8</v>
-      </c>
-      <c r="E89" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F89" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90">
-        <v>22</v>
-      </c>
-      <c r="E90" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F90" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
-      </c>
       <c r="D91">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E91" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F91" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D92">
         <v>6</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F92" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F93" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>218</v>
+      </c>
+      <c r="C94" t="s">
+        <v>180</v>
       </c>
       <c r="D94">
+        <v>25</v>
+      </c>
+      <c r="E94" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F94" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B95" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95">
         <v>1</v>
       </c>
-      <c r="E94" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F94" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B95" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
       <c r="E95" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F95" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>220</v>
+      </c>
+      <c r="C96" t="s">
+        <v>180</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F96" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B97" s="7">
-        <v>635</v>
+        <v>44428</v>
+      </c>
+      <c r="B97" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
       </c>
       <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E97" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F97" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
+      </c>
+      <c r="E98" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F98" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D99">
-        <v>3</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="E99" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F99" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E100" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F100" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>222</v>
+      </c>
+      <c r="C101" t="s">
+        <v>92</v>
       </c>
       <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="E101" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F101" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D102">
-        <v>11</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E102" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F102" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B103" t="s">
-        <v>4</v>
+        <v>44427</v>
+      </c>
+      <c r="B103">
+        <v>477</v>
       </c>
       <c r="D103">
-        <v>9</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="E103" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F103" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B104" t="s">
-        <v>37</v>
+        <v>44427</v>
+      </c>
+      <c r="B104">
+        <v>573</v>
       </c>
       <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="E104" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F104" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B105" t="s">
-        <v>6</v>
+        <v>44427</v>
+      </c>
+      <c r="B105">
+        <v>583</v>
       </c>
       <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
+      </c>
+      <c r="F105" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H105" t="b">
         <v>1</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F105" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>10</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="E106" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F106" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
-      </c>
-      <c r="H106" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
+      </c>
+      <c r="E107" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F107" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B108">
-        <v>477</v>
+        <v>44427</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
       </c>
       <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E108" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F108" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B109" s="7">
-        <v>635</v>
+        <v>44427</v>
+      </c>
+      <c r="B109" t="s">
+        <v>179</v>
       </c>
       <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E109" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F109" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H109" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="E110" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F110" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="E111" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F111" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="E112" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F112" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>94</v>
+      <c r="E113" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F113" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B114" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114">
         <v>4</v>
       </c>
-      <c r="D114">
-        <v>10</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>94</v>
+      <c r="E114" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F114" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B115" t="s">
-        <v>76</v>
+        <v>44426</v>
+      </c>
+      <c r="B115">
+        <v>477</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>94</v>
+      <c r="E115" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F115" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D116">
-        <v>10</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="E116" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F116" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="B117" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>94</v>
+      <c r="E117" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F117" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H117" t="b">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B118" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F118" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119">
+        <v>22</v>
+      </c>
+      <c r="E119" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>16</v>
+      </c>
+      <c r="E120" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F120" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B122" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F122" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B118">
-        <v>477</v>
-      </c>
-      <c r="D118">
-        <v>6</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F118" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B119" s="1">
-        <v>495</v>
-      </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F119" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H119" t="b">
+      <c r="E123" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F123" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B124" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F124" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H124" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B120" s="1">
-        <v>535</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F120" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B121" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F121" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B122" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122">
-        <v>3</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F122" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123">
-        <v>29</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F123" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124">
-        <v>4</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F124" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>8</v>
+        <v>44426</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>96</v>
+      <c r="E125" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F125" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B126">
-        <v>477</v>
+        <v>44425</v>
+      </c>
+      <c r="B126" s="7">
+        <v>635</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F126" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F126" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F127" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F127" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F128" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F128" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="1">
-        <v>499</v>
+        <v>7</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F129" t="s">
-        <v>75</v>
-      </c>
-      <c r="H129" t="b">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="F129" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F130" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F130" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F131" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F131" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B132" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F132" t="s">
-        <v>75</v>
-      </c>
-      <c r="H132" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="F132" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F133" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F133" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -4404,223 +4511,233 @@
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F134" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F134" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F135" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+      <c r="H135" t="b">
         <v>1</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F135" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B136">
-        <v>451</v>
+        <v>44425</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F136" t="s">
-        <v>74</v>
-      </c>
-      <c r="H136" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="F136" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B137">
         <v>477</v>
       </c>
       <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F137" t="s">
-        <v>74</v>
-      </c>
-      <c r="H137" t="b">
         <v>1</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F137" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B138" s="1">
-        <v>499</v>
+        <v>44424</v>
+      </c>
+      <c r="B138" s="7">
+        <v>635</v>
       </c>
       <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F138" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F139" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F140" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D141">
-        <v>16</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F141" t="s">
-        <v>74</v>
+        <v>3</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F141" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D142">
-        <v>3</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F142" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F142" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>2</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F143" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F143" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B144" s="1">
-        <v>499</v>
+        <v>44424</v>
+      </c>
+      <c r="B144" t="s">
+        <v>76</v>
       </c>
       <c r="D144">
-        <v>3</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F144" t="s">
-        <v>39</v>
-      </c>
-      <c r="H144" t="b">
         <v>1</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F144" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D145">
-        <v>4</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F145" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F145" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D146">
-        <v>3</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F146" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
@@ -4628,36 +4745,38 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B147" t="s">
-        <v>4</v>
+        <v>44423</v>
+      </c>
+      <c r="B147">
+        <v>477</v>
       </c>
       <c r="D147">
-        <v>21</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F147" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F147" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B148" t="s">
-        <v>37</v>
+        <v>44423</v>
+      </c>
+      <c r="B148" s="1">
+        <v>495</v>
       </c>
       <c r="D148">
-        <v>6</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F148" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
       <c r="H148" t="b">
         <v>1</v>
@@ -4665,374 +4784,329 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B149" t="s">
-        <v>9</v>
+        <v>44423</v>
+      </c>
+      <c r="B149" s="1">
+        <v>535</v>
       </c>
       <c r="D149">
-        <v>3</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F149" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F149" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+      <c r="H149" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>44420</v>
+        <v>44423</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D150">
-        <v>2</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F150" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>44420</v>
+        <v>44423</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D151">
-        <v>2</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F151" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F151" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
-        <v>24</v>
+        <v>44423</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D152">
-        <v>3</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>32</v>
-      </c>
-      <c r="H152" t="b">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F152" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B153" t="s">
+        <v>44423</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153">
         <v>4</v>
       </c>
-      <c r="D153">
-        <v>25</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>32</v>
+      <c r="E153" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F153" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B154" t="s">
-        <v>9</v>
+        <v>44423</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D154">
-        <v>4</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>32</v>
-      </c>
-      <c r="H154" t="b">
         <v>1</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F154" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B155" t="s">
-        <v>6</v>
+        <v>44422</v>
+      </c>
+      <c r="B155">
+        <v>477</v>
       </c>
       <c r="D155">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="C158" s="1">
+        <v>499</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="H158" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159">
         <v>4</v>
       </c>
-      <c r="D159">
-        <v>8</v>
-      </c>
       <c r="E159" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s">
-        <v>30</v>
-      </c>
-      <c r="H160" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>29</v>
-      </c>
-      <c r="H163" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D164">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>29</v>
-      </c>
-      <c r="H164" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>44417</v>
-      </c>
-      <c r="B165" t="s">
-        <v>8</v>
+        <v>44421</v>
+      </c>
+      <c r="B165">
+        <v>451</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="H165" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>44416</v>
-      </c>
-      <c r="B166" t="s">
-        <v>24</v>
+        <v>44421</v>
+      </c>
+      <c r="B166">
+        <v>477</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="H166" t="b">
         <v>1</v>
@@ -5040,68 +5114,639 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>44416</v>
-      </c>
-      <c r="B167" t="s">
-        <v>8</v>
+        <v>44421</v>
+      </c>
+      <c r="B167" s="1">
+        <v>499</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>29</v>
-      </c>
-      <c r="H167" t="b">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F168" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F169" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>16</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F171" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B173" s="1">
+        <v>499</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" t="s">
+        <v>39</v>
+      </c>
+      <c r="H173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B175" t="s">
+        <v>38</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F175" t="s">
+        <v>39</v>
+      </c>
+      <c r="H175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>21</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F176" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B177" t="s">
+        <v>37</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" t="s">
+        <v>39</v>
+      </c>
+      <c r="H177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F180" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>25</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" t="s">
+        <v>32</v>
+      </c>
+      <c r="H183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F185" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>9</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>30</v>
+      </c>
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192" t="s">
+        <v>19</v>
+      </c>
+      <c r="G192" t="s">
+        <v>29</v>
+      </c>
+      <c r="H192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>29</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F193" t="s">
+        <v>19</v>
+      </c>
+      <c r="G193" t="s">
+        <v>29</v>
+      </c>
+      <c r="H193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194">
+        <v>4</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F194" t="s">
+        <v>19</v>
+      </c>
+      <c r="G194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F195" t="s">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>29</v>
+      </c>
+      <c r="H195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196">
+        <v>7</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" t="s">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>29</v>
+      </c>
+      <c r="H196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
         <v>44415</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B197" t="s">
         <v>34</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C197" t="s">
         <v>12</v>
       </c>
-      <c r="D168">
+      <c r="D197">
         <v>5</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F197" t="s">
         <v>27</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G197" t="s">
         <v>35</v>
       </c>
-      <c r="H168" t="b">
+      <c r="H197" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>231</v>
       </c>
-      <c r="D169">
+      <c r="D198">
         <f>SUBTOTAL(109,Tbl_Clusters[new_cases])</f>
-        <v>1080</v>
-      </c>
-      <c r="H169">
+        <v>1195</v>
+      </c>
+      <c r="H198">
         <f>SUBTOTAL(103,Tbl_Clusters[new_cluster])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5114,10 +5759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D616A1-1DAC-724C-B8AD-DC0D33396E98}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5163,619 +5808,688 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B10" si="0">C3+1</f>
+        <v>2266</v>
+      </c>
+      <c r="C2">
+        <v>2380</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D10" si="1">C2-C3</f>
+        <v>115</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>112</v>
+      </c>
+      <c r="G2">
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="C3">
+        <v>2265</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>106</v>
+      </c>
+      <c r="G3">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>44433</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B8" si="0">C3+1</f>
+      <c r="B4">
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>2159</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D8" si="1">C2-C3</f>
+      <c r="D4">
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F3" si="2">D2-E2</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="2">D4-E4</f>
         <v>176</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <f>Tbl_Case_No[[#This Row],[new_local_cases]]-88</f>
         <v>88</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2880</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>44432</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>1874</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>1983</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>46</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I5" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>44431</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>1873</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F4">
-        <f>D4-E4</f>
+      <c r="F6">
+        <f>D6-E6</f>
         <v>104</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>70</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I6" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>44430</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>1456</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>1769</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F5">
-        <f>D5-E5</f>
+      <c r="F7">
+        <f>D7-E7</f>
         <v>308</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>141</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I7" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>44429</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>1334</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>1455</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F6">
-        <f>D6-E6</f>
+      <c r="F8">
+        <f>D8-E8</f>
         <v>120</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>79</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I8" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44428</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>1137</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>1333</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F8" si="3">D7-E7</f>
+      <c r="F9">
+        <f t="shared" ref="F9:F10" si="3">D9-E9</f>
         <v>197</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>74</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I9" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>44427</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>947</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>1136</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>51</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I10" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>44426</v>
       </c>
-      <c r="B9">
-        <f>C10+1</f>
+      <c r="B11">
+        <f>C12+1</f>
         <v>853</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>946</v>
       </c>
-      <c r="D9">
-        <f>C9-C10</f>
+      <c r="D11">
+        <f>C11-C12</f>
         <v>94</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F9">
-        <f>D9-E9</f>
+      <c r="F11">
+        <f>D11-E11</f>
         <v>94</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I11" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>44425</v>
       </c>
-      <c r="B10">
-        <f>C11+1</f>
+      <c r="B12">
+        <f>C13+1</f>
         <v>788</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>852</v>
       </c>
-      <c r="D10">
-        <f>C10-C11</f>
+      <c r="D12">
+        <f>C12-C13</f>
         <v>65</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="F10">
-        <f>D10-E10</f>
+      <c r="F12">
+        <f>D12-E12</f>
         <v>61</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>18</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I12" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>44424</v>
       </c>
-      <c r="B11">
-        <f>C12+1</f>
+      <c r="B13">
+        <f>C14+1</f>
         <v>724</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>787</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D19" si="4">C11-C12</f>
+      <c r="D13">
+        <f t="shared" ref="D13:D21" si="4">C13-C14</f>
         <v>64</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F13" si="5">D11-E11</f>
+      <c r="F13">
+        <f t="shared" ref="F13:F15" si="5">D13-E13</f>
         <v>64</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>24</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I13" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>44423</v>
       </c>
-      <c r="B12">
-        <f>C13+1</f>
+      <c r="B14">
+        <f>C15+1</f>
         <v>641</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>723</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>32</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I14" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44422</v>
       </c>
-      <c r="B13">
-        <f>C14+1</f>
+      <c r="B15">
+        <f>C16+1</f>
         <v>599</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>640</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I15" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2706</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44421</v>
       </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B19" si="6">C15+1</f>
+      <c r="B16">
+        <f t="shared" ref="B16:B21" si="6">C17+1</f>
         <v>544</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>598</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F20" si="7">D14-E14</f>
+      <c r="F16">
+        <f t="shared" ref="F16:F22" si="7">D16-E16</f>
         <v>54</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>22</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I16" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2687</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44420</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <f t="shared" si="6"/>
         <v>495</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>543</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I17" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2668</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>44419</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>494</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>13</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I18" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2639</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>44418</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>440</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I19" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2626</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>44417</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>406</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I20" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2595</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>44416</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <f t="shared" si="6"/>
         <v>348</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>364</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>0</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I21" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2557</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>44415</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>340</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>347</v>
       </c>
-      <c r="D20">
-        <f>C20-B20+1</f>
+      <c r="D22">
+        <f>C22-B22+1</f>
         <v>8</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>0</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I22" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2512</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>231</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <f>SUBTOTAL(109,Tbl_Case_No[new_total_cases])</f>
-        <v>1820</v>
-      </c>
-      <c r="E21">
+        <v>2041</v>
+      </c>
+      <c r="E23">
         <f>SUBTOTAL(109,Tbl_Case_No[new_import_cases])</f>
-        <v>29</v>
-      </c>
-      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="F23">
         <f>SUBTOTAL(109,Tbl_Case_No[new_local_cases])</f>
-        <v>1791</v>
-      </c>
-      <c r="G21">
+        <v>2009</v>
+      </c>
+      <c r="G23">
         <f>SUBTOTAL(109,Tbl_Case_No[new_unlinked_cases])</f>
-        <v>708</v>
-      </c>
-      <c r="H21">
+        <v>814</v>
+      </c>
+      <c r="H23">
         <f>SUBTOTAL(109,Tbl_Case_No[prev_unlinked_now_linked])</f>
-        <v>10</v>
-      </c>
-      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="I23">
         <f>SUBTOTAL(103,Tbl_Case_No[source_url])</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5788,11 +6502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B62DA-41EB-0D40-9B46-F05319D6FD2E}">
-  <dimension ref="A1:D177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B62DA-41EB-0D40-9B46-F05319D6FD2E}">
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5840,7 +6554,7 @@
       </c>
       <c r="D4">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5936,7 +6650,7 @@
       </c>
       <c r="D14" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5945,249 +6659,283 @@
       </c>
       <c r="D15" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>1888</v>
+      </c>
+      <c r="D16" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2085</v>
+      </c>
+      <c r="D17" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2262</v>
+      </c>
+      <c r="D18" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>499</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>218</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>221</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>220</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>219</v>
       </c>
-      <c r="D22">
+      <c r="D27">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34">
+      <c r="D38">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" s="7">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>231</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <f>SUBTOTAL(109,Tbl_Cluster_Totals[est_cluster_size])</f>
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="175" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.2"/>
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6215,92 +6963,92 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="B2">
-        <v>1597</v>
+        <v>2262</v>
       </c>
       <c r="C2">
-        <v>1597</v>
+        <v>2262</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B3">
-        <v>1640</v>
+        <v>1888</v>
       </c>
       <c r="C3">
-        <v>1640</v>
+        <v>1888</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B4">
-        <v>418</v>
+        <v>2085</v>
       </c>
       <c r="C4">
-        <v>418</v>
+        <v>2085</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B5">
-        <v>1056</v>
-      </c>
-      <c r="C5" t="s">
-        <v>234</v>
+        <v>1597</v>
+      </c>
+      <c r="C5">
+        <v>1597</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B6">
-        <v>362</v>
+        <v>1640</v>
       </c>
       <c r="C6">
-        <v>362</v>
+        <v>1640</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B7">
-        <v>650</v>
-      </c>
-      <c r="C7" t="s">
-        <v>235</v>
+        <v>418</v>
+      </c>
+      <c r="C7">
+        <v>418</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6308,10 +7056,10 @@
         <v>44430</v>
       </c>
       <c r="B8">
-        <v>415</v>
-      </c>
-      <c r="C8">
-        <v>362</v>
+        <v>1056</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
       </c>
       <c r="D8" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6320,178 +7068,178 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44421</v>
+        <v>44430</v>
       </c>
       <c r="B9">
-        <v>451</v>
+        <v>362</v>
       </c>
       <c r="C9">
-        <v>451</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
+        <v>362</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44421</v>
+        <v>44430</v>
       </c>
       <c r="B10">
-        <v>477</v>
-      </c>
-      <c r="C10">
-        <v>477</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
+        <v>650</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B11">
-        <v>583</v>
+        <v>415</v>
       </c>
       <c r="C11">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B12">
+        <v>451</v>
+      </c>
+      <c r="C12">
+        <v>451</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B13">
+        <v>477</v>
+      </c>
+      <c r="C13">
+        <v>477</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B14">
+        <v>583</v>
+      </c>
+      <c r="C14">
+        <v>483</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44426</v>
       </c>
-      <c r="B12">
+      <c r="B15">
         <v>674</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D15" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44425</v>
       </c>
-      <c r="B13">
+      <c r="B16">
         <v>762</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44425</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>597</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>44423</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>646</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>495</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D18" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>44423</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>652</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>495</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D19" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>44423</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>495</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>495</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D20" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B18">
-        <v>774</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B19">
-        <v>776</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B20">
-        <v>630</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6499,10 +7247,10 @@
         <v>44424</v>
       </c>
       <c r="B21">
-        <v>755</v>
-      </c>
-      <c r="C21">
-        <v>573</v>
+        <v>774</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
       </c>
       <c r="D21" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6514,10 +7262,10 @@
         <v>44424</v>
       </c>
       <c r="B22">
-        <v>573</v>
-      </c>
-      <c r="C22">
-        <v>573</v>
+        <v>776</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6526,46 +7274,47 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B23">
-        <v>618</v>
-      </c>
-      <c r="C23">
-        <v>495</v>
+        <v>630</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
       </c>
       <c r="D23" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B24">
-        <v>499</v>
+        <v>755</v>
       </c>
       <c r="C24">
-        <v>499</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
+        <v>573</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B25">
-        <v>649</v>
+        <v>573</v>
       </c>
       <c r="C25">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6573,10 +7322,10 @@
         <v>44423</v>
       </c>
       <c r="B26">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="C26">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="D26" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -6585,89 +7334,91 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B27">
+        <v>499</v>
+      </c>
+      <c r="C27">
+        <v>499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>44423</v>
       </c>
-      <c r="B27">
-        <v>616</v>
-      </c>
-      <c r="C27">
+      <c r="B28">
+        <v>649</v>
+      </c>
+      <c r="C28">
         <v>535</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D28" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B29">
+        <v>535</v>
+      </c>
+      <c r="C29">
+        <v>535</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B30">
+        <v>616</v>
+      </c>
+      <c r="C30">
+        <v>535</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>44424</v>
       </c>
-      <c r="B28">
+      <c r="B31">
         <v>765</v>
       </c>
-      <c r="C28">
+      <c r="C31">
         <v>635</v>
       </c>
-      <c r="D28" s="5" t="str">
+      <c r="D31" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>44424</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>766</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <v>635</v>
       </c>
-      <c r="D29" s="5" t="str">
+      <c r="D32" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B30">
-        <v>432</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B31">
-        <v>566</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B32">
-        <v>563</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6675,197 +7426,239 @@
         <v>44422</v>
       </c>
       <c r="B33">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B34">
+        <v>566</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B35">
+        <v>563</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B36">
+        <v>448</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>44424</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <v>635</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>635</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D37" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>44428</v>
       </c>
-      <c r="B35">
+      <c r="B38">
         <v>884</v>
       </c>
-      <c r="C35">
+      <c r="C38">
         <v>884</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D38" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>44430</v>
       </c>
-      <c r="B36">
+      <c r="B39">
         <v>1328</v>
       </c>
-      <c r="C36">
+      <c r="C39">
         <v>1328</v>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D39" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B37">
-        <v>441</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B38">
-        <v>450</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B39">
-        <v>423</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B40">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B41">
-        <v>363</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B42">
-        <v>364</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="B43">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B44">
-        <v>345</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
+        <v>363</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B45">
+        <v>364</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B46">
+        <v>346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B47">
+        <v>345</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>231</v>
       </c>
-      <c r="B45">
+      <c r="B48">
         <f>SUBTOTAL(103,Table4[case_no])</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/brunei_covid19_clusters_2021.xlsx
+++ b/brunei_covid19_clusters_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buns/Dropbox/projects/brunei_covid19_clusters_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64252CA-3C61-F046-8044-24EBCA8A0849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83636C36-C47E-4C41-AEE9-5A7A9F57AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="460" windowWidth="18200" windowHeight="14900" activeTab="3" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
+    <workbookView xWindow="12500" yWindow="460" windowWidth="18200" windowHeight="14900" activeTab="1" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
   </bookViews>
   <sheets>
     <sheet name="Local_Cases" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="NotUpdated_Unlinked" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$227</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Clusters_Totals!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">New_Linked!$A$1:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">New_Linked!$A$1:$E$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NotUpdated_Unlinked!$A$1:$F$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{E1C17E59-2863-2A46-AF83-A0CE19DEC607}">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{E1C17E59-2863-2A46-AF83-A0CE19DEC607}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="277">
   <si>
     <t>cluster_name</t>
   </si>
@@ -932,6 +932,27 @@
   </si>
   <si>
     <t>https://t.me/govbnofficial/2899</t>
+  </si>
+  <si>
+    <t>[Unspecified Cluster Additions]</t>
+  </si>
+  <si>
+    <t>https://t.me/govbnofficial/2907</t>
+  </si>
+  <si>
+    <t>28 Aug 2021</t>
+  </si>
+  <si>
+    <t>29 Aug 2021</t>
+  </si>
+  <si>
+    <t>30 Aug 2021</t>
+  </si>
+  <si>
+    <t>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</t>
+  </si>
+  <si>
+    <t>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</t>
   </si>
 </sst>
 </file>
@@ -982,12 +1003,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1002,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1011,6 +1038,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,7 +1051,7 @@
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
@@ -1032,13 +1060,13 @@
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
@@ -1057,12 +1085,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D23" totalsRowCount="1">
-  <autoFilter ref="A1:D22" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D26" totalsRowCount="1">
+  <autoFilter ref="A1:D25" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C8219F84-41B4-4543-970C-AC240178CAAB}" name="new_cases_local" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{0B89804C-1CE2-B54F-9742-6E80801137AF}" name="source_url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1070,17 +1098,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H198" totalsRowCount="1">
-  <autoFilter ref="A1:H197" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H197">
-    <sortCondition descending="1" ref="A1:A197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H228" totalsRowCount="1">
+  <autoFilter ref="A1:H227" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H227">
+    <sortCondition descending="1" ref="A1:A227"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FD55AB48-86EA-6B44-859E-42B3D99DA7D0}" name="cluster_name"/>
     <tableColumn id="3" xr3:uid="{F3E27EF3-3744-034A-9633-177D4B2A7666}" name="previous_cluster_name"/>
     <tableColumn id="4" xr3:uid="{FA5A0D2F-BDB2-E444-BDC8-B89AEC5370BE}" name="new_cases" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{7108E558-15B0-5E4C-A80E-FC8EBC11D432}" name="source_url1"/>
     <tableColumn id="7" xr3:uid="{4C4321BC-9B94-014F-97AB-E3BE8CCD396B}" name="source_url2"/>
     <tableColumn id="8" xr3:uid="{E259B1DE-B69C-5C47-8027-BA10CFD2EBBE}" name="new_cluster" totalsRowFunction="count"/>
@@ -1090,10 +1118,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I23" totalsRowCount="1">
-  <autoFilter ref="A1:I22" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I26" totalsRowCount="1">
+  <autoFilter ref="A1:I25" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8C5D9FA-8E9D-8545-9981-54854FE541D8}" name="date" totalsRowLabel="Total" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{B8C5D9FA-8E9D-8545-9981-54854FE541D8}" name="date" totalsRowLabel="Total" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{29F6D0CD-21FC-2D43-AD75-290F8F2D80F2}" name="case_no_start"/>
     <tableColumn id="3" xr3:uid="{07A29089-AC57-974B-B586-DB389B72504E}" name="case_no_end"/>
     <tableColumn id="4" xr3:uid="{2323FEAD-BA39-1F4B-A64F-C1CE345C6526}" name="new_total_cases" totalsRowFunction="sum"/>
@@ -1103,7 +1131,7 @@
     </tableColumn>
     <tableColumn id="7" xr3:uid="{BC13AC45-A932-EA43-91A6-E6046EBE0E6E}" name="new_unlinked_cases" totalsRowFunction="sum"/>
     <tableColumn id="8" xr3:uid="{9E8AED9A-7E3C-5549-8CCB-B32FFEA47188}" name="prev_unlinked_now_linked" totalsRowFunction="sum"/>
-    <tableColumn id="9" xr3:uid="{FD88F222-E9C6-4A47-AED8-6A931ABEAD96}" name="source_url" totalsRowFunction="count" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{FD88F222-E9C6-4A47-AED8-6A931ABEAD96}" name="source_url" totalsRowFunction="count" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1121,7 +1149,7 @@
     <tableColumn id="8" xr3:uid="{3472DA4A-623F-9A4F-AFBD-B9162F4C10C4}" name="cluster_name" totalsRowLabel="Total"/>
     <tableColumn id="10" xr3:uid="{3DE63D44-7B53-6C4B-A4AA-1443F96251FC}" name="cluster_name2"/>
     <tableColumn id="11" xr3:uid="{CF6FE236-7281-184E-A2A5-78E2629FD6C7}" name="cluster_name3"/>
-    <tableColumn id="9" xr3:uid="{F6CB42B1-FA1E-C24B-A154-A3B3A758A87B}" name="est_cluster_size" totalsRowFunction="sum" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{F6CB42B1-FA1E-C24B-A154-A3B3A758A87B}" name="est_cluster_size" totalsRowFunction="sum" dataDxfId="6">
       <calculatedColumnFormula>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1130,13 +1158,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E359D52-C057-0F41-8002-6AF09123BA7B}" name="Table4" displayName="Table4" ref="A1:E48" totalsRowCount="1">
-  <autoFilter ref="A1:E47" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E39">
-    <sortCondition ref="C1:C47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E359D52-C057-0F41-8002-6AF09123BA7B}" name="Table4" displayName="Table4" ref="A1:E51" totalsRowCount="1">
+  <autoFilter ref="A1:E50" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E50">
+    <sortCondition descending="1" ref="A1:A50"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{650FFC6D-6931-674A-AA81-6A7327C1CB44}" name="case_no" totalsRowFunction="count"/>
     <tableColumn id="4" xr3:uid="{F1223669-1683-D24C-862B-34273155D9DC}" name="cluster"/>
     <tableColumn id="5" xr3:uid="{9392D9B5-12E7-6A4F-B195-380B3DA016DB}" name="source_url1"/>
@@ -1458,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A6B8-87CC-554B-9DA1-2DFB2BF01927}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1486,320 +1514,365 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44435</v>
+      <c r="A2" s="8">
+        <v>44438</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(A2,Tbl_Case_No[],6,FALSE)</f>
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(A3,Tbl_Case_No[],6,FALSE)</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44433</v>
+        <v>44436</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(A4,Tbl_Case_No[],6,FALSE)</f>
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(A5,Tbl_Case_No[],6,FALSE)</f>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(A6,Tbl_Case_No[],6,FALSE)</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(A7,Tbl_Case_No[],6,FALSE)</f>
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44429</v>
+        <v>44432</v>
       </c>
       <c r="B8">
         <f>VLOOKUP(A8,Tbl_Case_No[],6,FALSE)</f>
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B9">
         <f>VLOOKUP(A9,Tbl_Case_No[],6,FALSE)</f>
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B10">
         <f>VLOOKUP(A10,Tbl_Case_No[],6,FALSE)</f>
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B11">
         <f>VLOOKUP(A11,Tbl_Case_No[],6,FALSE)</f>
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B12">
         <f>VLOOKUP(A12,Tbl_Case_No[],6,FALSE)</f>
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B13">
         <f>VLOOKUP(A13,Tbl_Case_No[],6,FALSE)</f>
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="B14">
         <f>VLOOKUP(A14,Tbl_Case_No[],6,FALSE)</f>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <f>VLOOKUP(A15,Tbl_Case_No[],6,FALSE)</f>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <f>VLOOKUP(A16,Tbl_Case_No[],6,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44420</v>
+        <v>44423</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <f>VLOOKUP(A17,Tbl_Case_No[],6,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44418</v>
+        <v>44421</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44416</v>
+        <v>44419</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B23">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>44415</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>231</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <f>SUBTOTAL(109,Tbl_Local_Cases[new_cases_local])</f>
-        <v>2009</v>
+        <v>2270</v>
       </c>
     </row>
   </sheetData>
@@ -1813,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B37A9-E51B-0E49-8E6A-54CF922008BF}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1855,2685 +1928,2694 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B2">
-        <v>2262</v>
+      <c r="A2" s="8">
+        <v>44438</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="8">
+        <v>44438</v>
+      </c>
+      <c r="B3">
+        <v>2230</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>30 Aug 2021</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>44438</v>
+      </c>
+      <c r="B4">
+        <v>2085</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>30 Aug 2021</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>44438</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>30 Aug 2021</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>44438</v>
+      </c>
+      <c r="B6" t="s">
         <v>218</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>30 Aug 2021</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>44438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B6">
-        <v>1597</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B8">
-        <v>1888</v>
+      <c r="A8" s="8">
+        <v>44438</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="A9" s="8">
+        <v>44438</v>
+      </c>
+      <c r="B9">
+        <v>1848</v>
       </c>
       <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>30 Aug 2021</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+      </c>
+      <c r="H9" t="b">
         <v>1</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
+        <v>44437</v>
+      </c>
+      <c r="B14">
+        <v>2085</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44434</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
+        <v>44437</v>
+      </c>
+      <c r="B16">
+        <v>1888</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F18" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44434</v>
-      </c>
-      <c r="B19" t="s">
-        <v>220</v>
+        <v>44437</v>
+      </c>
+      <c r="B19">
+        <v>2155</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>44434</v>
+      <c r="A21" s="8">
+        <v>44436</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>28 Aug 2021</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>28 Aug 2021</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B23" t="s">
         <v>95</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="E21" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
-      </c>
-      <c r="F21" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>44434</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
-      </c>
-      <c r="F22" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>44434</v>
-      </c>
-      <c r="B23" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>44434</v>
+      <c r="A24" s="8">
+        <v>44436</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>44434</v>
+      <c r="A25" s="8">
+        <v>44436</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>44434</v>
-      </c>
-      <c r="B26">
-        <v>1640</v>
+      <c r="A26" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B26" t="s">
+        <v>266</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>44434</v>
+      <c r="A27" s="8">
+        <v>44436</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>44434</v>
+      <c r="A28" s="8">
+        <v>44436</v>
       </c>
       <c r="B28">
-        <v>451</v>
+        <v>1640</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>44434</v>
+      <c r="A29" s="8">
+        <v>44436</v>
       </c>
       <c r="B29">
-        <v>1888</v>
+        <v>2262</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>44434</v>
+      <c r="A30" s="8">
+        <v>44436</v>
       </c>
       <c r="B30">
-        <v>2085</v>
+        <v>2155</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B31" t="s">
-        <v>218</v>
+      <c r="A31" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B31">
+        <v>2230</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G31" t="s">
-        <v>247</v>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B32" t="s">
+        <v>44435</v>
+      </c>
+      <c r="B32">
+        <v>2262</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>27 Aug 2021</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>27 Aug 2021</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B34" t="s">
         <v>220</v>
       </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
-      </c>
-      <c r="F32" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>27 Aug 2021</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B35" t="s">
         <v>219</v>
       </c>
-      <c r="D33">
-        <v>14</v>
-      </c>
-      <c r="E33" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
-      </c>
-      <c r="F33" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>27 Aug 2021</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B36">
+        <v>1597</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>27 Aug 2021</v>
+      </c>
+      <c r="F36" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>12</v>
-      </c>
-      <c r="E34" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
-      </c>
-      <c r="F34" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G34" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
-      </c>
-      <c r="F35" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
-      </c>
-      <c r="F36" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
       <c r="E37" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F37" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B38">
-        <v>477</v>
+        <v>1888</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F38" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F39" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G39" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F40" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G40" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
         <v>6</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
       <c r="E41" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F41" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G41" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B42">
-        <v>535</v>
+        <v>44435</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F42" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F43" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F44" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E45" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F45" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G45" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B46">
-        <v>1640</v>
+        <v>44434</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G46" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F48" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G48" t="s">
-        <v>264</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B49">
-        <v>1597</v>
+        <v>44434</v>
+      </c>
+      <c r="B49" t="s">
+        <v>220</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E49" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F49" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
-      </c>
-      <c r="H49" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B50">
-        <v>1640</v>
+        <v>44434</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F50" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="D51">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
-      </c>
-      <c r="G51" t="s">
-        <v>246</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B52">
-        <v>418</v>
+        <v>44434</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
-      </c>
-      <c r="H52" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>266</v>
+      </c>
+      <c r="C53" t="s">
+        <v>222</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F54" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F55" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
+        <v>44434</v>
+      </c>
+      <c r="B56">
+        <v>1640</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F56" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F57" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
+        <v>44434</v>
+      </c>
+      <c r="B58">
+        <v>451</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F58" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B59" t="s">
-        <v>235</v>
+        <v>44434</v>
+      </c>
+      <c r="B59">
+        <v>1888</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F59" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B60" t="s">
-        <v>234</v>
+        <v>44434</v>
+      </c>
+      <c r="B60">
+        <v>2085</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F60" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E61" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F61" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G61" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F62" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
-      </c>
-      <c r="G62">
-        <f>SUMIF(Tbl_Clusters[cluster_name],"The Mall",Tbl_Clusters[new_cases])</f>
-        <v>43</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G62" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B63">
-        <v>362</v>
+        <v>44433</v>
+      </c>
+      <c r="B63" t="s">
+        <v>219</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E63" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F63" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G63" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B64">
-        <v>477</v>
+        <v>44433</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G64" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B65">
-        <v>583</v>
+        <v>44433</v>
+      </c>
+      <c r="B65" t="s">
+        <v>235</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E65" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F65" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G65" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B66">
-        <v>1328</v>
+        <v>44433</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F66" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H66" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G66" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E67" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F67" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G67" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
+        <v>44433</v>
+      </c>
+      <c r="B68">
+        <v>477</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F68" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G68" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E69" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F69" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G69" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F70" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G70" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F71" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G71" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
+        <v>44433</v>
+      </c>
+      <c r="B72">
+        <v>535</v>
       </c>
       <c r="D72">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F72" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G72" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F73" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G73" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F74" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G74" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="D75">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E75" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F75" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G75" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B76" t="s">
-        <v>235</v>
+        <v>44433</v>
+      </c>
+      <c r="B76">
+        <v>1640</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F76" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H76" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G76" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F77" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G77" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F78" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H78" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G78" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B79" t="s">
-        <v>95</v>
+        <v>44432</v>
+      </c>
+      <c r="B79">
+        <v>1597</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E79" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F79" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B80" t="s">
-        <v>91</v>
+        <v>44432</v>
+      </c>
+      <c r="B80">
+        <v>1640</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F80" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E81" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F81" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="G81" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>44429</v>
+        <v>44431</v>
       </c>
       <c r="B82">
-        <v>583</v>
+        <v>418</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F82" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B83">
-        <v>1385</v>
+        <v>44431</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F83" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
-      </c>
-      <c r="H83" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B84" s="6" t="s">
+        <v>44431</v>
+      </c>
+      <c r="B84" t="s">
         <v>179</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F84" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>218</v>
+        <v>44431</v>
+      </c>
+      <c r="B85" t="s">
+        <v>220</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F85" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>220</v>
+        <v>44431</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F86" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>44429</v>
+        <v>44431</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E87" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F87" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>76</v>
+        <v>44431</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F88" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B89">
-        <v>583</v>
+        <v>44431</v>
+      </c>
+      <c r="B89" t="s">
+        <v>235</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E89" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F89" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B90">
-        <v>884</v>
+        <v>44431</v>
+      </c>
+      <c r="B90" t="s">
+        <v>234</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F90" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H90" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F91" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>23 Aug 2021</v>
       </c>
       <c r="F92" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+      <c r="G92">
+        <f>SUMIF(Tbl_Clusters[cluster_name],"The Mall",Tbl_Clusters[new_cases])</f>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B93" t="s">
-        <v>179</v>
+        <v>44430</v>
+      </c>
+      <c r="B93">
+        <v>362</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E93" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F93" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B94" t="s">
-        <v>218</v>
-      </c>
-      <c r="C94" t="s">
-        <v>180</v>
+        <v>44430</v>
+      </c>
+      <c r="B94">
+        <v>477</v>
       </c>
       <c r="D94">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F94" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H94" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B95" t="s">
-        <v>221</v>
-      </c>
-      <c r="C95" t="s">
-        <v>180</v>
+        <v>44430</v>
+      </c>
+      <c r="B95">
+        <v>583</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F95" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H95" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B96" t="s">
-        <v>220</v>
-      </c>
-      <c r="C96" t="s">
-        <v>180</v>
+        <v>44430</v>
+      </c>
+      <c r="B96">
+        <v>1328</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F96" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
-      </c>
-      <c r="C97" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D97">
         <v>10</v>
       </c>
       <c r="E97" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F97" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H97" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F98" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E99" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F99" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F100" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E101" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F101" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F102" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B103">
-        <v>477</v>
+        <v>44430</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F103" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B104">
-        <v>573</v>
+        <v>44430</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F104" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-      <c r="H104" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B105">
-        <v>583</v>
+        <v>44430</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E105" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F105" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-      <c r="H105" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F106" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E107" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F107" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F108" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E109" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F109" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="D110">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F110" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E111" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F111" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B112" t="s">
-        <v>37</v>
+        <v>44429</v>
+      </c>
+      <c r="B112">
+        <v>583</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F112" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B113" t="s">
-        <v>76</v>
+        <v>44429</v>
+      </c>
+      <c r="B113">
+        <v>1385</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F113" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B114" t="s">
-        <v>91</v>
+        <v>44429</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D114">
+        <v>8</v>
+      </c>
+      <c r="E114" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F114" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F115" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116">
+        <v>9</v>
+      </c>
+      <c r="E116" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>21 Aug 2021</v>
+      </c>
+      <c r="F116" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B117" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
-      </c>
-      <c r="F114" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B115">
-        <v>477</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F115" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F116" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B117" t="s">
-        <v>92</v>
-      </c>
       <c r="D117">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E117" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F117" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B118" t="s">
-        <v>179</v>
-      </c>
-      <c r="C118" t="s">
-        <v>77</v>
+        <v>44429</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D118">
         <v>8</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F118" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H118" t="b">
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B119">
+        <v>583</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B120">
+        <v>884</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F120" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F122" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B123" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F123" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B124" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124">
+        <v>25</v>
+      </c>
+      <c r="E124" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F124" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B125" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" t="s">
         <v>180</v>
-      </c>
-      <c r="C119" t="s">
-        <v>38</v>
-      </c>
-      <c r="D119">
-        <v>22</v>
-      </c>
-      <c r="E119" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F119" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120">
-        <v>16</v>
-      </c>
-      <c r="E120" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F120" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B121" t="s">
-        <v>37</v>
-      </c>
-      <c r="D121">
-        <v>6</v>
-      </c>
-      <c r="E121" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F121" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F122" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F123" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B124" t="s">
-        <v>181</v>
-      </c>
-      <c r="D124">
-        <v>3</v>
-      </c>
-      <c r="E124" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
-      </c>
-      <c r="F124" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F125" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B126" s="7">
-        <v>635</v>
+        <v>44428</v>
+      </c>
+      <c r="B126" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" t="s">
+        <v>180</v>
       </c>
       <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E126" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F126" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>219</v>
+      </c>
+      <c r="C127" t="s">
+        <v>180</v>
       </c>
       <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E127" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F127" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B128" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D128">
-        <v>3</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
+      </c>
+      <c r="E128" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F128" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>93</v>
+      <c r="E129" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F129" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B130" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D130">
-        <v>3</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E130" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F130" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>222</v>
+      </c>
+      <c r="C131" t="s">
+        <v>92</v>
       </c>
       <c r="D131">
-        <v>11</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="E131" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F131" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D132">
-        <v>9</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E132" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F132" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B133" t="s">
-        <v>37</v>
+        <v>44427</v>
+      </c>
+      <c r="B133">
+        <v>477</v>
       </c>
       <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="E133" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F133" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B134" t="s">
-        <v>6</v>
+        <v>44427</v>
+      </c>
+      <c r="B134">
+        <v>573</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>93</v>
+      <c r="E134" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F134" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B135" t="s">
-        <v>91</v>
+        <v>44427</v>
+      </c>
+      <c r="B135">
+        <v>583</v>
       </c>
       <c r="D135">
-        <v>10</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
+      </c>
+      <c r="E135" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F135" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
       <c r="H135" t="b">
         <v>1</v>
@@ -4541,552 +4623,578 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="E136" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F136" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B137">
-        <v>477</v>
+        <v>44427</v>
+      </c>
+      <c r="B137" t="s">
+        <v>92</v>
       </c>
       <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E137" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F137" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B138" s="7">
-        <v>635</v>
+        <v>44427</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>2</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E138" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F138" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H138" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="D139">
-        <v>4</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E139" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F139" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="E140" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F140" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>3</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="E141" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F141" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D142">
-        <v>4</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="E142" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F142" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B143" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143">
         <v>4</v>
       </c>
-      <c r="D143">
-        <v>10</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>94</v>
+      <c r="E143" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F143" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>19 Aug 2021</v>
+      </c>
+      <c r="F144" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B145">
+        <v>477</v>
+      </c>
+      <c r="D145">
         <v>1</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F144" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B145" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145">
-        <v>10</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>94</v>
+      <c r="E145" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F145" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="B146" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D146">
         <v>2</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>94</v>
+      <c r="E146" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F146" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H146" t="b">
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B147" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F147" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C148" t="s">
+        <v>77</v>
+      </c>
+      <c r="D148">
+        <v>8</v>
+      </c>
+      <c r="E148" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F148" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B149" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" t="s">
+        <v>38</v>
+      </c>
+      <c r="D149">
+        <v>22</v>
+      </c>
+      <c r="E149" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F149" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>16</v>
+      </c>
+      <c r="E150" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F150" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B151" t="s">
+        <v>37</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F151" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B152" t="s">
+        <v>76</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F152" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B147">
-        <v>477</v>
-      </c>
-      <c r="D147">
-        <v>6</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F147" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B148" s="1">
-        <v>495</v>
-      </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F148" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H148" t="b">
+      <c r="E153" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F153" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B154" t="s">
+        <v>181</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F154" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H154" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B149" s="1">
-        <v>535</v>
-      </c>
-      <c r="D149">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155">
         <v>1</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F149" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H149" t="b">
+      <c r="E155" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
+      </c>
+      <c r="F155" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B156" s="7">
+        <v>635</v>
+      </c>
+      <c r="D156">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B150" t="s">
-        <v>77</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F150" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B151" t="s">
-        <v>38</v>
-      </c>
-      <c r="D151">
-        <v>3</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F151" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152">
-        <v>29</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F152" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153">
-        <v>4</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F153" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F154" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B155">
-        <v>477</v>
-      </c>
-      <c r="D155">
-        <v>4</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F155" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="E156" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F156" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B157" t="s">
         <v>11</v>
-      </c>
-      <c r="D156">
-        <v>4</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F156" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B157" t="s">
-        <v>7</v>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F157" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F157" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B158" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F158" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F159" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B160" t="s">
         <v>77</v>
-      </c>
-      <c r="C158" s="1">
-        <v>499</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F158" t="s">
-        <v>75</v>
-      </c>
-      <c r="H158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B159" t="s">
-        <v>38</v>
-      </c>
-      <c r="D159">
-        <v>4</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F159" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B160" t="s">
-        <v>4</v>
       </c>
       <c r="D160">
         <v>3</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F160" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F160" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B161" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F161" t="s">
-        <v>75</v>
-      </c>
-      <c r="H161" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="F161" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162">
         <v>9</v>
       </c>
-      <c r="D162">
-        <v>7</v>
-      </c>
       <c r="E162" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F162" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F162" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F163" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F163" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D164">
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F164" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F164" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B165">
-        <v>451</v>
+        <v>44425</v>
+      </c>
+      <c r="B165" t="s">
+        <v>91</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F165" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="F165" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
       <c r="H165" t="b">
         <v>1</v>
@@ -5094,590 +5202,552 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B166">
-        <v>477</v>
+        <v>44425</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F166" t="s">
-        <v>74</v>
-      </c>
-      <c r="H166" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="F166" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B167" s="1">
-        <v>499</v>
+        <v>44424</v>
+      </c>
+      <c r="B167">
+        <v>477</v>
       </c>
       <c r="D167">
-        <v>3</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F167" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F167" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B168" t="s">
-        <v>11</v>
+        <v>44424</v>
+      </c>
+      <c r="B168" s="7">
+        <v>635</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F168" t="s">
-        <v>74</v>
+      <c r="E168" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F168" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+      <c r="H168" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D169">
-        <v>1</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F169" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F169" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D170">
-        <v>16</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F170" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F170" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D171">
         <v>3</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F171" t="s">
-        <v>74</v>
+      <c r="E171" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D172">
-        <v>2</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F172" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F172" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B173" s="1">
-        <v>499</v>
+        <v>44424</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>3</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F173" t="s">
-        <v>39</v>
-      </c>
-      <c r="H173" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F173" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D174">
-        <v>4</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F174" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F174" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D175">
-        <v>3</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F175" t="s">
-        <v>39</v>
-      </c>
-      <c r="H175" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F175" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D176">
-        <v>21</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F176" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F176" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+      <c r="H176" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B177" t="s">
-        <v>37</v>
+        <v>44423</v>
+      </c>
+      <c r="B177">
+        <v>477</v>
       </c>
       <c r="D177">
         <v>6</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F177" t="s">
-        <v>39</v>
-      </c>
-      <c r="H177" t="b">
-        <v>1</v>
+      <c r="E177" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F177" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B178" t="s">
-        <v>9</v>
+        <v>44423</v>
+      </c>
+      <c r="B178" s="1">
+        <v>495</v>
       </c>
       <c r="D178">
-        <v>3</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F178" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F178" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+      <c r="H178" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B179" t="s">
-        <v>6</v>
+        <v>44423</v>
+      </c>
+      <c r="B179" s="1">
+        <v>535</v>
       </c>
       <c r="D179">
-        <v>2</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F179" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F179" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+      <c r="H179" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>44420</v>
+        <v>44423</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D180">
-        <v>2</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F180" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F180" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>44419</v>
+        <v>44423</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D181">
         <v>3</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>32</v>
-      </c>
-      <c r="H181" t="b">
-        <v>0</v>
+      <c r="E181" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F181" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B182" t="s">
+        <v>44423</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D182">
-        <v>25</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F182" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B183" t="s">
+        <v>44423</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D183">
         <v>4</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>32</v>
-      </c>
-      <c r="H183" t="b">
-        <v>1</v>
+      <c r="E183" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F183" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B184" t="s">
-        <v>6</v>
+        <v>44423</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D184">
-        <v>8</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F184" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B185" t="s">
-        <v>8</v>
+        <v>44422</v>
+      </c>
+      <c r="B185">
+        <v>477</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="C188" s="1">
+        <v>499</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="H188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s">
-        <v>30</v>
-      </c>
-      <c r="H189" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s">
-        <v>30</v>
-      </c>
-      <c r="H190" t="b">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>44418</v>
+        <v>44422</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="H191" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s">
-        <v>29</v>
-      </c>
-      <c r="H192" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s">
-        <v>29</v>
-      </c>
-      <c r="H193" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>44416</v>
-      </c>
-      <c r="B195" t="s">
-        <v>24</v>
+        <v>44421</v>
+      </c>
+      <c r="B195">
+        <v>451</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="H195" t="b">
         <v>1</v>
@@ -5685,22 +5755,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>44416</v>
-      </c>
-      <c r="B196" t="s">
-        <v>8</v>
+        <v>44421</v>
+      </c>
+      <c r="B196">
+        <v>477</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="H196" t="b">
         <v>1</v>
@@ -5708,45 +5775,639 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B197" s="1">
+        <v>499</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F197" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B199" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F199" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>16</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F200" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F201" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B203" s="1">
+        <v>499</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203" t="s">
+        <v>39</v>
+      </c>
+      <c r="H203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F204" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B205" t="s">
+        <v>38</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F205" t="s">
+        <v>39</v>
+      </c>
+      <c r="H205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>21</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F206" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B207" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207">
+        <v>6</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F207" t="s">
+        <v>39</v>
+      </c>
+      <c r="H207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F209" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F210" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F211" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" t="s">
+        <v>32</v>
+      </c>
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212">
+        <v>25</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F212" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" t="s">
+        <v>32</v>
+      </c>
+      <c r="H213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214">
+        <v>8</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F214" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F215" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B217" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218">
+        <v>8</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s">
+        <v>30</v>
+      </c>
+      <c r="H219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" t="s">
+        <v>30</v>
+      </c>
+      <c r="H220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222">
+        <v>5</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F222" t="s">
+        <v>19</v>
+      </c>
+      <c r="G222" t="s">
+        <v>29</v>
+      </c>
+      <c r="H222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>29</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F223" t="s">
+        <v>19</v>
+      </c>
+      <c r="G223" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F224" t="s">
+        <v>19</v>
+      </c>
+      <c r="G224" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B225" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225">
+        <v>5</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F225" t="s">
+        <v>21</v>
+      </c>
+      <c r="G225" t="s">
+        <v>29</v>
+      </c>
+      <c r="H225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226">
+        <v>7</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226" t="s">
+        <v>21</v>
+      </c>
+      <c r="G226" t="s">
+        <v>29</v>
+      </c>
+      <c r="H226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
         <v>44415</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B227" t="s">
         <v>34</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C227" t="s">
         <v>12</v>
       </c>
-      <c r="D197">
+      <c r="D227">
         <v>5</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F227" t="s">
         <v>27</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G227" t="s">
         <v>35</v>
       </c>
-      <c r="H197" t="b">
+      <c r="H227" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>231</v>
       </c>
-      <c r="D198">
+      <c r="D228">
         <f>SUBTOTAL(109,Tbl_Clusters[new_cases])</f>
-        <v>1195</v>
-      </c>
-      <c r="H198">
+        <v>1334</v>
+      </c>
+      <c r="H228">
         <f>SUBTOTAL(103,Tbl_Clusters[new_cluster])</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5759,10 +6420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D616A1-1DAC-724C-B8AD-DC0D33396E98}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5807,689 +6468,782 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44435</v>
+      <c r="A2" s="8">
+        <v>44438</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B10" si="0">C3+1</f>
-        <v>2266</v>
+        <f t="shared" ref="B2:B13" si="0">C3+1</f>
+        <v>2566</v>
       </c>
       <c r="C2">
-        <v>2380</v>
+        <v>2641</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D10" si="1">C2-C3</f>
-        <v>115</v>
+        <f t="shared" ref="D2:D13" si="1">C2-C3</f>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>2463</v>
       </c>
       <c r="C3">
-        <v>2265</v>
+        <v>2565</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G3">
-        <v>47</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44433</v>
+      <c r="A4" s="8">
+        <v>44436</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1984</v>
+        <v>2381</v>
       </c>
       <c r="C4">
-        <v>2159</v>
+        <v>2462</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F5" si="2">D4-E4</f>
+        <f>D4-E4</f>
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2266</v>
+      </c>
+      <c r="C5">
+        <v>2380</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>112</v>
+      </c>
+      <c r="G5">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="C6">
+        <v>2265</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>106</v>
+      </c>
+      <c r="G6">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="C7">
+        <v>2159</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="G4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F8" si="2">D7-E7</f>
+        <v>176</v>
+      </c>
+      <c r="G7">
         <f>Tbl_Case_No[[#This Row],[new_local_cases]]-88</f>
         <v>88</v>
       </c>
-      <c r="H4">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I7" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2880</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>44432</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>1874</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>1983</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>46</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I8" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44431</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>1873</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F6">
-        <f>D6-E6</f>
+      <c r="F9">
+        <f>D9-E9</f>
         <v>104</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <v>70</v>
       </c>
-      <c r="H6">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I9" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>44430</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>1456</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>1769</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="F7">
-        <f>D7-E7</f>
+      <c r="F10">
+        <f>D10-E10</f>
         <v>308</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>141</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I10" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>44429</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>1334</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>1455</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F8">
-        <f>D8-E8</f>
+      <c r="F11">
+        <f>D11-E11</f>
         <v>120</v>
       </c>
-      <c r="G8">
+      <c r="G11">
         <v>79</v>
       </c>
-      <c r="H8">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I11" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>44428</v>
       </c>
-      <c r="B9">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>1137</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>1333</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F10" si="3">D9-E9</f>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="3">D12-E12</f>
         <v>197</v>
       </c>
-      <c r="G9">
+      <c r="G12">
         <v>74</v>
       </c>
-      <c r="H9">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I12" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>44427</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>947</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>1136</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <v>51</v>
       </c>
-      <c r="H10">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I13" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>44426</v>
       </c>
-      <c r="B11">
-        <f>C12+1</f>
+      <c r="B14">
+        <f>C15+1</f>
         <v>853</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>946</v>
       </c>
-      <c r="D11">
-        <f>C11-C12</f>
+      <c r="D14">
+        <f>C14-C15</f>
         <v>94</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="F11">
-        <f>D11-E11</f>
+      <c r="F14">
+        <f>D14-E14</f>
         <v>94</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>30</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I14" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44425</v>
       </c>
-      <c r="B12">
-        <f>C13+1</f>
+      <c r="B15">
+        <f>C16+1</f>
         <v>788</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>852</v>
       </c>
-      <c r="D12">
-        <f>C12-C13</f>
+      <c r="D15">
+        <f>C15-C16</f>
         <v>65</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="F12">
-        <f>D12-E12</f>
+      <c r="F15">
+        <f>D15-E15</f>
         <v>61</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>18</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I15" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44424</v>
       </c>
-      <c r="B13">
-        <f>C14+1</f>
+      <c r="B16">
+        <f>C17+1</f>
         <v>724</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>787</v>
       </c>
-      <c r="D13">
-        <f t="shared" ref="D13:D21" si="4">C13-C14</f>
+      <c r="D16">
+        <f t="shared" ref="D16:D24" si="4">C16-C17</f>
         <v>64</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F15" si="5">D13-E13</f>
+      <c r="F16">
+        <f t="shared" ref="F16:F18" si="5">D16-E16</f>
         <v>64</v>
       </c>
-      <c r="G13">
+      <c r="G16">
         <v>24</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I16" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44423</v>
       </c>
-      <c r="B14">
-        <f>C15+1</f>
+      <c r="B17">
+        <f>C18+1</f>
         <v>641</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>723</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="F17">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="G14">
+      <c r="G17">
         <v>32</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I17" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>44422</v>
       </c>
-      <c r="B15">
-        <f>C16+1</f>
+      <c r="B18">
+        <f>C19+1</f>
         <v>599</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>640</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F18">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="G15">
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I18" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2706</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>44421</v>
       </c>
-      <c r="B16">
-        <f t="shared" ref="B16:B21" si="6">C17+1</f>
+      <c r="B19">
+        <f t="shared" ref="B19:B24" si="6">C20+1</f>
         <v>544</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>598</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F22" si="7">D16-E16</f>
+      <c r="F19">
+        <f t="shared" ref="F19:F25" si="7">D19-E19</f>
         <v>54</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <v>22</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I19" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2687</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>44420</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <f t="shared" si="6"/>
         <v>495</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>543</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I20" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2668</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>44419</v>
       </c>
-      <c r="B18">
+      <c r="B21">
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>494</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="G18">
+      <c r="G21">
         <v>13</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I21" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2639</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>44418</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>440</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="E19">
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F22">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="G19">
+      <c r="G22">
         <v>0</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I22" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2626</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>44417</v>
       </c>
-      <c r="B20">
+      <c r="B23">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>406</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F23">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="G20">
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I23" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2595</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>44416</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <f t="shared" si="6"/>
         <v>348</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>364</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>0</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I24" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2557</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>44415</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>340</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>347</v>
       </c>
-      <c r="D22">
-        <f>C22-B22+1</f>
+      <c r="D25">
+        <f>C25-B25+1</f>
         <v>8</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>0</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I25" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2512</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>231</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <f>SUBTOTAL(109,Tbl_Case_No[new_total_cases])</f>
-        <v>2041</v>
-      </c>
-      <c r="E23">
+        <v>2302</v>
+      </c>
+      <c r="E26">
         <f>SUBTOTAL(109,Tbl_Case_No[new_import_cases])</f>
         <v>32</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <f>SUBTOTAL(109,Tbl_Case_No[new_local_cases])</f>
-        <v>2009</v>
-      </c>
-      <c r="G23">
+        <v>2270</v>
+      </c>
+      <c r="G26">
         <f>SUBTOTAL(109,Tbl_Case_No[new_unlinked_cases])</f>
-        <v>814</v>
-      </c>
-      <c r="H23">
+        <v>936</v>
+      </c>
+      <c r="H26">
         <f>SUBTOTAL(109,Tbl_Case_No[prev_unlinked_now_linked])</f>
-        <v>13</v>
-      </c>
-      <c r="I23">
+        <v>18</v>
+      </c>
+      <c r="I26">
         <f>SUBTOTAL(103,Tbl_Case_No[source_url])</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6505,7 +7259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B62DA-41EB-0D40-9B46-F05319D6FD2E}">
   <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6659,7 +7413,7 @@
       </c>
       <c r="D15" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6668,7 +7422,7 @@
       </c>
       <c r="D16" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6677,7 +7431,7 @@
       </c>
       <c r="D17" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6686,16 +7440,16 @@
       </c>
       <c r="D18" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="D19" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -6731,7 +7485,7 @@
       </c>
       <c r="D22">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6752,7 +7506,7 @@
       </c>
       <c r="D24">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6761,7 +7515,7 @@
       </c>
       <c r="D25">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6770,7 +7524,7 @@
       </c>
       <c r="D26">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6788,7 +7542,7 @@
       </c>
       <c r="D28">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6806,7 +7560,7 @@
       </c>
       <c r="D30">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6824,7 +7578,7 @@
       </c>
       <c r="D32">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6848,7 +7602,7 @@
       </c>
       <c r="D34">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -6875,7 +7629,7 @@
       </c>
       <c r="D37">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -6896,7 +7650,7 @@
       </c>
       <c r="D39">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6914,7 +7668,7 @@
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tbl_Cluster_Totals[est_cluster_size])</f>
-        <v>1195</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
@@ -6932,10 +7686,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6962,138 +7716,138 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44435</v>
+      <c r="A2" s="8">
+        <v>44438</v>
       </c>
       <c r="B2">
-        <v>2262</v>
+        <v>1848</v>
       </c>
       <c r="C2">
-        <v>2262</v>
+        <v>1848</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44434</v>
+      <c r="A3" s="8">
+        <v>44436</v>
       </c>
       <c r="B3">
-        <v>1888</v>
+        <v>2155</v>
       </c>
       <c r="C3">
-        <v>1888</v>
+        <v>2155</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44434</v>
+      <c r="A4" s="8">
+        <v>44436</v>
       </c>
       <c r="B4">
-        <v>2085</v>
+        <v>2230</v>
       </c>
       <c r="C4">
-        <v>2085</v>
+        <v>2230</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="B5">
-        <v>1597</v>
+        <v>2262</v>
       </c>
       <c r="C5">
-        <v>1597</v>
+        <v>2262</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B6">
-        <v>1640</v>
+        <v>1888</v>
       </c>
       <c r="C6">
-        <v>1640</v>
+        <v>1888</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B7">
-        <v>418</v>
+        <v>2085</v>
       </c>
       <c r="C7">
-        <v>418</v>
+        <v>2085</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B8">
-        <v>1056</v>
-      </c>
-      <c r="C8" t="s">
-        <v>234</v>
+        <v>1597</v>
+      </c>
+      <c r="C8">
+        <v>1597</v>
       </c>
       <c r="D8" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B9">
-        <v>362</v>
+        <v>1640</v>
       </c>
       <c r="C9">
-        <v>362</v>
+        <v>1640</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B10">
-        <v>650</v>
-      </c>
-      <c r="C10" t="s">
-        <v>235</v>
+        <v>418</v>
+      </c>
+      <c r="C10">
+        <v>418</v>
       </c>
       <c r="D10" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7101,7 +7855,7 @@
         <v>44430</v>
       </c>
       <c r="B11">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="C11">
         <v>362</v>
@@ -7113,133 +7867,135 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44421</v>
+        <v>44430</v>
       </c>
       <c r="B12">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="C12">
-        <v>451</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
+        <v>362</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44421</v>
+        <v>44430</v>
       </c>
       <c r="B13">
-        <v>477</v>
+        <v>1328</v>
       </c>
       <c r="C13">
-        <v>477</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
+        <v>1328</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B14">
-        <v>583</v>
-      </c>
-      <c r="C14">
-        <v>483</v>
+        <v>650</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44426</v>
+        <v>44430</v>
       </c>
       <c r="B15">
-        <v>674</v>
+        <v>1056</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="B16">
-        <v>762</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
+        <v>884</v>
+      </c>
+      <c r="C16">
+        <v>884</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B17">
-        <v>597</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
+        <v>583</v>
+      </c>
+      <c r="C17">
+        <v>483</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="B18">
-        <v>646</v>
-      </c>
-      <c r="C18">
-        <v>495</v>
+        <v>674</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
       </c>
       <c r="D18" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44423</v>
+        <v>44425</v>
       </c>
       <c r="B19">
-        <v>652</v>
-      </c>
-      <c r="C19">
-        <v>495</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>597</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44423</v>
+        <v>44425</v>
       </c>
       <c r="B20">
-        <v>495</v>
-      </c>
-      <c r="C20">
-        <v>495</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>762</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7247,10 +8003,10 @@
         <v>44424</v>
       </c>
       <c r="B21">
-        <v>774</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
+        <v>755</v>
+      </c>
+      <c r="C21">
+        <v>573</v>
       </c>
       <c r="D21" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -7262,10 +8018,10 @@
         <v>44424</v>
       </c>
       <c r="B22">
-        <v>776</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
+        <v>573</v>
+      </c>
+      <c r="C22">
+        <v>573</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -7277,10 +8033,10 @@
         <v>44424</v>
       </c>
       <c r="B23">
-        <v>630</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
+        <v>765</v>
+      </c>
+      <c r="C23">
+        <v>635</v>
       </c>
       <c r="D23" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -7292,10 +8048,10 @@
         <v>44424</v>
       </c>
       <c r="B24">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="C24">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="D24" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -7307,10 +8063,10 @@
         <v>44424</v>
       </c>
       <c r="B25">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="C25">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -7319,46 +8075,47 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B26">
-        <v>618</v>
-      </c>
-      <c r="C26">
-        <v>495</v>
+        <v>774</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
       </c>
       <c r="D26" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B27">
-        <v>499</v>
-      </c>
-      <c r="C27">
-        <v>499</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
+        <v>776</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B28">
-        <v>649</v>
-      </c>
-      <c r="C28">
-        <v>535</v>
+        <v>630</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
       </c>
       <c r="D28" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7366,10 +8123,10 @@
         <v>44423</v>
       </c>
       <c r="B29">
-        <v>535</v>
+        <v>646</v>
       </c>
       <c r="C29">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="D29" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -7381,10 +8138,10 @@
         <v>44423</v>
       </c>
       <c r="B30">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="C30">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="D30" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
@@ -7393,74 +8150,77 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B31">
-        <v>765</v>
+        <v>495</v>
       </c>
       <c r="C31">
-        <v>635</v>
+        <v>495</v>
       </c>
       <c r="D31" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B32">
-        <v>766</v>
+        <v>618</v>
       </c>
       <c r="C32">
-        <v>635</v>
+        <v>495</v>
       </c>
       <c r="D32" s="5" t="str">
         <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="B33">
-        <v>432</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" t="s">
-        <v>75</v>
+        <v>649</v>
+      </c>
+      <c r="C33">
+        <v>535</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="B34">
-        <v>566</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
+        <v>535</v>
+      </c>
+      <c r="C34">
+        <v>535</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="B35">
-        <v>563</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>75</v>
+        <v>616</v>
+      </c>
+      <c r="C35">
+        <v>535</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -7468,197 +8228,236 @@
         <v>44422</v>
       </c>
       <c r="B36">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B37">
-        <v>635</v>
-      </c>
-      <c r="C37">
-        <v>635</v>
-      </c>
-      <c r="D37" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>566</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44428</v>
+        <v>44422</v>
       </c>
       <c r="B38">
-        <v>884</v>
-      </c>
-      <c r="C38">
-        <v>884</v>
-      </c>
-      <c r="D38" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>563</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44430</v>
+        <v>44422</v>
       </c>
       <c r="B39">
-        <v>1328</v>
-      </c>
-      <c r="C39">
-        <v>1328</v>
-      </c>
-      <c r="D39" s="5" t="str">
-        <f>VLOOKUP(Table4[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
+        <v>448</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B40">
-        <v>441</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
+        <v>451</v>
+      </c>
+      <c r="C40">
+        <v>451</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B41">
-        <v>450</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
+        <v>477</v>
+      </c>
+      <c r="C41">
+        <v>477</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B42">
-        <v>423</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
+        <v>499</v>
+      </c>
+      <c r="C42">
+        <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B43">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B44">
-        <v>363</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B45">
-        <v>364</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="B46">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B47">
-        <v>345</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
+        <v>364</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B48">
+        <v>363</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B49">
+        <v>346</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B50">
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>231</v>
       </c>
-      <c r="B48">
+      <c r="B51">
         <f>SUBTOTAL(103,Table4[case_no])</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/brunei_covid19_clusters_2021.xlsx
+++ b/brunei_covid19_clusters_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buns/Dropbox/projects/brunei_covid19_clusters_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83636C36-C47E-4C41-AEE9-5A7A9F57AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA691E1A-A81F-4F49-964D-BF65E6195A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="460" windowWidth="18200" windowHeight="14900" activeTab="1" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
+    <workbookView xWindow="9200" yWindow="460" windowWidth="13660" windowHeight="14900" activeTab="1" xr2:uid="{4EEE980E-F98A-F04A-81DA-28F79A32CF31}"/>
   </bookViews>
   <sheets>
     <sheet name="Local_Cases" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="NotUpdated_Unlinked" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clusters!$B$1:$G$236</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Clusters_Totals!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">New_Linked!$A$1:$E$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NotUpdated_Unlinked!$A$1:$F$201</definedName>
@@ -41,7 +41,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{E1C17E59-2863-2A46-AF83-A0CE19DEC607}">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{E1C17E59-2863-2A46-AF83-A0CE19DEC607}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{FEC29FC4-C2FB-1140-97DA-8487C5EAF1ED}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{FEC29FC4-C2FB-1140-97DA-8487C5EAF1ED}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="280">
   <si>
     <t>cluster_name</t>
   </si>
@@ -953,6 +953,15 @@
   </si>
   <si>
     <t>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</t>
+  </si>
+  <si>
+    <t>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</t>
+  </si>
+  <si>
+    <t>31 Aug 2021</t>
+  </si>
+  <si>
+    <t>Champion 7 - PEN</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1039,11 +1048,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1061,9 +1075,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
@@ -1085,12 +1096,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D26" totalsRowCount="1">
-  <autoFilter ref="A1:D25" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}" name="Tbl_Local_Cases" displayName="Tbl_Local_Cases" ref="A1:D27" totalsRowCount="1">
+  <autoFilter ref="A1:D26" xr:uid="{70DE38B8-C732-D440-A25A-6C5E536AB3A6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6823ACEE-A3A3-1748-809D-AC362597DA0C}" name="date" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C8219F84-41B4-4543-970C-AC240178CAAB}" name="new_cases_local" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{EA923CFB-EF5A-7E49-983E-8A754441FB0C}" name="date_readable" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{0B89804C-1CE2-B54F-9742-6E80801137AF}" name="source_url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1098,17 +1109,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H228" totalsRowCount="1">
-  <autoFilter ref="A1:H227" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H227">
-    <sortCondition descending="1" ref="A1:A227"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}" name="Tbl_Clusters" displayName="Tbl_Clusters" ref="A1:H237" totalsRowCount="1">
+  <autoFilter ref="A1:H236" xr:uid="{1BC7DC66-B919-BD49-ABC6-6FAD38B631A5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H236">
+    <sortCondition descending="1" ref="A1:A236"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5EE0B13F-21A0-334E-B4C1-3F653FEFDCF1}" name="date" totalsRowLabel="Total" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{FD55AB48-86EA-6B44-859E-42B3D99DA7D0}" name="cluster_name"/>
     <tableColumn id="3" xr3:uid="{F3E27EF3-3744-034A-9633-177D4B2A7666}" name="previous_cluster_name"/>
     <tableColumn id="4" xr3:uid="{FA5A0D2F-BDB2-E444-BDC8-B89AEC5370BE}" name="new_cases" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{78E672FF-C6B5-D149-9CD0-7C2918225A4D}" name="date_readable" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{7108E558-15B0-5E4C-A80E-FC8EBC11D432}" name="source_url1"/>
     <tableColumn id="7" xr3:uid="{4C4321BC-9B94-014F-97AB-E3BE8CCD396B}" name="source_url2"/>
     <tableColumn id="8" xr3:uid="{E259B1DE-B69C-5C47-8027-BA10CFD2EBBE}" name="new_cluster" totalsRowFunction="count"/>
@@ -1118,8 +1129,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I26" totalsRowCount="1">
-  <autoFilter ref="A1:I25" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}" name="Tbl_Case_No" displayName="Tbl_Case_No" ref="A1:I27" totalsRowCount="1">
+  <autoFilter ref="A1:I26" xr:uid="{5C35F423-97DF-2641-BD3B-1564FA89695D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8C5D9FA-8E9D-8545-9981-54854FE541D8}" name="date" totalsRowLabel="Total" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{29F6D0CD-21FC-2D43-AD75-290F8F2D80F2}" name="case_no_start"/>
@@ -1140,16 +1151,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{48470B76-3457-6F43-AF6D-F0F948D355BE}" name="Tbl_Cluster_Totals" displayName="Tbl_Cluster_Totals" ref="A1:D41" totalsRowCount="1">
-  <autoFilter ref="A1:D40" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
-    <sortCondition ref="A1:A40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{48470B76-3457-6F43-AF6D-F0F948D355BE}" name="Tbl_Cluster_Totals" displayName="Tbl_Cluster_Totals" ref="A1:D44" totalsRowCount="1">
+  <autoFilter ref="A1:D43" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+    <sortCondition ref="A1:A43"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="8" xr3:uid="{3472DA4A-623F-9A4F-AFBD-B9162F4C10C4}" name="cluster_name" totalsRowLabel="Total"/>
     <tableColumn id="10" xr3:uid="{3DE63D44-7B53-6C4B-A4AA-1443F96251FC}" name="cluster_name2"/>
     <tableColumn id="11" xr3:uid="{CF6FE236-7281-184E-A2A5-78E2629FD6C7}" name="cluster_name3"/>
-    <tableColumn id="9" xr3:uid="{F6CB42B1-FA1E-C24B-A154-A3B3A758A87B}" name="est_cluster_size" totalsRowFunction="sum" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{F6CB42B1-FA1E-C24B-A154-A3B3A758A87B}" name="est_cluster_size" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1164,7 +1175,7 @@
     <sortCondition descending="1" ref="A1:A50"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A2D73AB1-B845-4F46-AFFE-20794FAAA7BC}" name="date" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{650FFC6D-6931-674A-AA81-6A7327C1CB44}" name="case_no" totalsRowFunction="count"/>
     <tableColumn id="4" xr3:uid="{F1223669-1683-D24C-862B-34273155D9DC}" name="cluster"/>
     <tableColumn id="5" xr3:uid="{9392D9B5-12E7-6A4F-B195-380B3DA016DB}" name="source_url1"/>
@@ -1178,7 +1189,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABA12C8B-11EC-4B45-A79B-AC7933D01534}" name="Table46" displayName="Table46" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{69B55428-C90C-894D-9086-C15F0768CF90}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{855B1941-9DEC-B744-ACF2-4C0B7972054B}" name="date" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{855B1941-9DEC-B744-ACF2-4C0B7972054B}" name="date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{9380F812-B3DE-CE4D-BB2D-0746549A51BA}" name="case_no"/>
     <tableColumn id="3" xr3:uid="{299EFDA1-6D5C-274C-914D-71C74D7383DB}" name="unlinked_case_no"/>
     <tableColumn id="4" xr3:uid="{4081AC17-B858-3B49-BD3D-2E83C2520C6E}" name="cluster"/>
@@ -1486,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A6B8-87CC-554B-9DA1-2DFB2BF01927}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,365 +1525,380 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>44438</v>
+      <c r="A2" s="2">
+        <v>44439</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(A2,Tbl_Case_No[],6,FALSE)</f>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44437</v>
+      <c r="A3" s="8">
+        <v>44438</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(A3,Tbl_Case_No[],6,FALSE)</f>
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(A4,Tbl_Case_No[],6,FALSE)</f>
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(A5,Tbl_Case_No[],6,FALSE)</f>
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(A6,Tbl_Case_No[],6,FALSE)</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(A7,Tbl_Case_No[],6,FALSE)</f>
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="B8">
         <f>VLOOKUP(A8,Tbl_Case_No[],6,FALSE)</f>
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B9">
         <f>VLOOKUP(A9,Tbl_Case_No[],6,FALSE)</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B10">
         <f>VLOOKUP(A10,Tbl_Case_No[],6,FALSE)</f>
-        <v>308</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B11">
         <f>VLOOKUP(A11,Tbl_Case_No[],6,FALSE)</f>
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44428</v>
+        <v>44429</v>
       </c>
       <c r="B12">
         <f>VLOOKUP(A12,Tbl_Case_No[],6,FALSE)</f>
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B13">
         <f>VLOOKUP(A13,Tbl_Case_No[],6,FALSE)</f>
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B14">
         <f>VLOOKUP(A14,Tbl_Case_No[],6,FALSE)</f>
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B15">
         <f>VLOOKUP(A15,Tbl_Case_No[],6,FALSE)</f>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B16">
         <f>VLOOKUP(A16,Tbl_Case_No[],6,FALSE)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B17">
         <f>VLOOKUP(A17,Tbl_Case_No[],6,FALSE)</f>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <f>VLOOKUP(A18,Tbl_Case_No[],6,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="B19">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B20">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B21">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>44415</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>231</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <f>SUBTOTAL(109,Tbl_Local_Cases[new_cases_local])</f>
-        <v>2270</v>
+        <v>2341</v>
       </c>
     </row>
   </sheetData>
@@ -1886,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B37A9-E51B-0E49-8E6A-54CF922008BF}">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B31"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1928,340 +1954,346 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>44438</v>
+      <c r="A2" s="2">
+        <v>44439</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>30 Aug 2021</v>
+        <v>31 Aug 2021</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>44438</v>
-      </c>
-      <c r="B3">
-        <v>2230</v>
+      <c r="A3" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>30 Aug 2021</v>
+        <v>31 Aug 2021</v>
       </c>
       <c r="F3" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>44438</v>
-      </c>
-      <c r="B4">
-        <v>2085</v>
+      <c r="A4" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>31 Aug 2021</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>31 Aug 2021</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>31 Aug 2021</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>31 Aug 2021</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>31 Aug 2021</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>30 Aug 2021</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>44438</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>30 Aug 2021</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>44438</v>
-      </c>
-      <c r="B6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>30 Aug 2021</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>44438</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>30 Aug 2021</v>
-      </c>
-      <c r="F7" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>44438</v>
-      </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>30 Aug 2021</v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>44438</v>
-      </c>
-      <c r="B9">
-        <v>1848</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>30 Aug 2021</v>
+        <v>31 Aug 2021</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44437</v>
-      </c>
-      <c r="B10" t="s">
-        <v>218</v>
+        <v>44439</v>
+      </c>
+      <c r="B10">
+        <v>1640</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
+        <v>31 Aug 2021</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>44437</v>
+      <c r="A11" s="10">
+        <v>44438</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>44437</v>
-      </c>
-      <c r="B12" t="s">
-        <v>221</v>
+      <c r="A12" s="10">
+        <v>44438</v>
+      </c>
+      <c r="B12">
+        <v>2230</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>44437</v>
-      </c>
-      <c r="B13" t="s">
-        <v>179</v>
+      <c r="A13" s="10">
+        <v>44438</v>
+      </c>
+      <c r="B13">
+        <v>2085</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>44437</v>
-      </c>
-      <c r="B14">
-        <v>2085</v>
+      <c r="A14" s="10">
+        <v>44438</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>44437</v>
+      <c r="A15" s="10">
+        <v>44438</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44437</v>
-      </c>
-      <c r="B16">
-        <v>1888</v>
+      <c r="A16" s="10">
+        <v>44438</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44437</v>
+      <c r="A17" s="10">
+        <v>44438</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
+        <v>30 Aug 2021</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>44437</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="10">
+        <v>44438</v>
+      </c>
+      <c r="B18">
+        <v>1848</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>30 Aug 2021</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="E18" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>29 Aug 2021</v>
-      </c>
-      <c r="F18" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44437</v>
       </c>
-      <c r="B19">
-        <v>2155</v>
+      <c r="B19" t="s">
+        <v>218</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2277,10 +2309,10 @@
         <v>44437</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2292,185 +2324,185 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>44436</v>
+      <c r="A21" s="2">
+        <v>44437</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F21" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>44436</v>
+      <c r="A22" s="2">
+        <v>44437</v>
       </c>
       <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>29 Aug 2021</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B23">
+        <v>2085</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>29 Aug 2021</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B24" t="s">
         <v>91</v>
       </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
-      </c>
-      <c r="F22" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>44436</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
-      </c>
-      <c r="F23" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>44436</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F24" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>44436</v>
-      </c>
-      <c r="B25" t="s">
-        <v>179</v>
+      <c r="A25" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B25">
+        <v>1888</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>44436</v>
+      <c r="A26" s="2">
+        <v>44437</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>44436</v>
+      <c r="A27" s="2">
+        <v>44437</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F27" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>44436</v>
+      <c r="A28" s="2">
+        <v>44437</v>
       </c>
       <c r="B28">
-        <v>1640</v>
+        <v>2155</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F28" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>44436</v>
-      </c>
-      <c r="B29">
-        <v>2262</v>
+      <c r="A29" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>28 Aug 2021</v>
+        <v>29 Aug 2021</v>
       </c>
       <c r="F29" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>44436</v>
       </c>
-      <c r="B30">
-        <v>2155</v>
+      <c r="B30" t="s">
+        <v>76</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2479,20 +2511,17 @@
       <c r="F30" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2907</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>44436</v>
       </c>
-      <c r="B31">
-        <v>2230</v>
+      <c r="B31" t="s">
+        <v>91</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2502,190 +2531,190 @@
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2907</v>
       </c>
-      <c r="H31" t="b">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>28 Aug 2021</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B32">
-        <v>2262</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
-      </c>
-      <c r="F32" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B33" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
       <c r="E33" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F33" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>44435</v>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>44436</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F34" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>44435</v>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>44436</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F35" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B36">
-        <v>1597</v>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B36" t="s">
+        <v>235</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F36" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B37" t="s">
-        <v>266</v>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B37">
+        <v>1640</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F37" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>44435</v>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>44436</v>
       </c>
       <c r="B38">
-        <v>1888</v>
+        <v>2262</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
+        <v>28 Aug 2021</v>
       </c>
       <c r="F38" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B39" t="s">
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B39">
+        <v>2155</v>
+      </c>
+      <c r="D39">
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="E39" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>28 Aug 2021</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+      <c r="H39" t="b">
         <v>1</v>
       </c>
-      <c r="E39" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
-      </c>
-      <c r="F39" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>44435</v>
-      </c>
-      <c r="B40" t="s">
-        <v>234</v>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>44436</v>
+      </c>
+      <c r="B40">
+        <v>2230</v>
       </c>
       <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>28 Aug 2021</v>
+      </c>
+      <c r="F40" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2907</v>
+      </c>
+      <c r="H40" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>27 Aug 2021</v>
-      </c>
-      <c r="F40" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44435</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
+      <c r="B41">
+        <v>2262</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -2698,16 +2727,19 @@
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2899</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44435</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2718,15 +2750,15 @@
         <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44435</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2737,15 +2769,15 @@
         <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44435</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2756,15 +2788,15 @@
         <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44435</v>
       </c>
-      <c r="B45" t="s">
-        <v>95</v>
+      <c r="B45">
+        <v>1597</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E45" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2775,181 +2807,175 @@
         <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>15</v>
-      </c>
       <c r="E46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F46" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44434</v>
-      </c>
-      <c r="B47" t="s">
-        <v>76</v>
+        <v>44435</v>
+      </c>
+      <c r="B47">
+        <v>1888</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F47" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>https://t.me/govbnofficial/2899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F48" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F49" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F50" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F51" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F52" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
-      </c>
-      <c r="C53" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F53" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>26 Aug 2021</v>
+        <v>27 Aug 2021</v>
       </c>
       <c r="F54" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2957,10 +2983,10 @@
         <v>44434</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E55" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2975,11 +3001,11 @@
       <c r="A56" s="2">
         <v>44434</v>
       </c>
-      <c r="B56">
-        <v>1640</v>
+      <c r="B56" t="s">
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -2995,10 +3021,10 @@
         <v>44434</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3013,11 +3039,11 @@
       <c r="A58" s="2">
         <v>44434</v>
       </c>
-      <c r="B58">
-        <v>451</v>
+      <c r="B58" t="s">
+        <v>220</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3032,11 +3058,11 @@
       <c r="A59" s="2">
         <v>44434</v>
       </c>
-      <c r="B59">
-        <v>1888</v>
+      <c r="B59" t="s">
+        <v>235</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3045,20 +3071,17 @@
       <c r="F59" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2891</v>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44434</v>
       </c>
-      <c r="B60">
-        <v>2085</v>
+      <c r="B60" t="s">
+        <v>95</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3067,207 +3090,189 @@
       <c r="F60" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2891</v>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E61" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F61" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G61" t="s">
-        <v>247</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>266</v>
+      </c>
+      <c r="C62" t="s">
+        <v>222</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F62" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G62" t="s">
-        <v>248</v>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="D63">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E63" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F63" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G63" t="s">
-        <v>249</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F64" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G64" t="s">
-        <v>250</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B65" t="s">
-        <v>235</v>
+        <v>44434</v>
+      </c>
+      <c r="B65">
+        <v>1640</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E65" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F65" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G65" t="s">
-        <v>251</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F66" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G66" t="s">
-        <v>252</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B67" t="s">
-        <v>95</v>
+        <v>44434</v>
+      </c>
+      <c r="B67">
+        <v>451</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F67" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G67" t="s">
-        <v>253</v>
+        <v>https://t.me/govbnofficial/2891</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B68">
-        <v>477</v>
+        <v>1888</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F68" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G68" t="s">
-        <v>254</v>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>44433</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
+        <v>44434</v>
+      </c>
+      <c r="B69">
+        <v>2085</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E69" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>25 Aug 2021</v>
+        <v>26 Aug 2021</v>
       </c>
       <c r="F69" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2880</v>
-      </c>
-      <c r="G69" t="s">
-        <v>255</v>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3275,10 +3280,10 @@
         <v>44433</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3289,7 +3294,7 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3297,10 +3302,10 @@
         <v>44433</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E71" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3311,18 +3316,18 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G71" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44433</v>
       </c>
-      <c r="B72">
-        <v>535</v>
+      <c r="B72" t="s">
+        <v>219</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3333,7 +3338,7 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G72" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3341,10 +3346,10 @@
         <v>44433</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E73" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3355,7 +3360,7 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G73" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3363,10 +3368,10 @@
         <v>44433</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3377,7 +3382,7 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3385,10 +3390,10 @@
         <v>44433</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3399,18 +3404,18 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G75" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44433</v>
       </c>
-      <c r="B76">
-        <v>1640</v>
+      <c r="B76" t="s">
+        <v>95</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3421,18 +3426,18 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G76" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44433</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
+      <c r="B77">
+        <v>477</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3443,7 +3448,7 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G77" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3451,10 +3456,10 @@
         <v>44433</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3465,119 +3470,122 @@
         <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G78" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B79">
-        <v>1597</v>
+        <v>44433</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E79" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F79" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
-      </c>
-      <c r="H79" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G79" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B80">
-        <v>1640</v>
+        <v>44433</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F80" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
-      </c>
-      <c r="H80" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G80" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B81" t="s">
-        <v>245</v>
+        <v>44433</v>
+      </c>
+      <c r="B81">
+        <v>535</v>
       </c>
       <c r="D81">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E81" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>24 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F81" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2872</v>
+        <v>https://t.me/govbnofficial/2880</v>
       </c>
       <c r="G81" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B82">
-        <v>418</v>
+        <v>44433</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F82" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
-      </c>
-      <c r="H82" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G82" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F83" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G83" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B84" t="s">
         <v>179</v>
@@ -3587,136 +3595,157 @@
       </c>
       <c r="E84" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F84" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G84" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B85" t="s">
-        <v>220</v>
+        <v>44433</v>
+      </c>
+      <c r="B85">
+        <v>1640</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F85" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G85" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F86" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G86" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>25 Aug 2021</v>
       </c>
       <c r="F87" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2880</v>
+      </c>
+      <c r="G87" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
+        <v>44432</v>
+      </c>
+      <c r="B88">
+        <v>1597</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F88" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>44431</v>
-      </c>
-      <c r="B89" t="s">
-        <v>235</v>
+        <v>44432</v>
+      </c>
+      <c r="B89">
+        <v>1640</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E89" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F89" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>23 Aug 2021</v>
+        <v>24 Aug 2021</v>
       </c>
       <c r="F90" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2851</v>
+        <v>https://t.me/govbnofficial/2872</v>
+      </c>
+      <c r="G90" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44431</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91">
+        <v>418</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E91" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3725,6 +3754,9 @@
       <c r="F91" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2851</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -3732,210 +3764,204 @@
         <v>44431</v>
       </c>
       <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F92" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F94" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F95" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F96" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F97" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B98" t="s">
+        <v>235</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F98" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B99" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F99" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>23 Aug 2021</v>
+      </c>
+      <c r="F100" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B101" t="s">
         <v>91</v>
       </c>
-      <c r="D92">
+      <c r="D101">
         <v>5</v>
       </c>
-      <c r="E92" s="5" t="str">
+      <c r="E101" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
         <v>23 Aug 2021</v>
       </c>
-      <c r="F92" s="5" t="str">
+      <c r="F101" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2851</v>
       </c>
-      <c r="G92">
+      <c r="G101">
         <f>SUMIF(Tbl_Clusters[cluster_name],"The Mall",Tbl_Clusters[new_cases])</f>
         <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B93">
-        <v>362</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F93" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B94">
-        <v>477</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F94" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B95">
-        <v>583</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F95" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B96">
-        <v>1328</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-      <c r="E96" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F96" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B97" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97">
-        <v>10</v>
-      </c>
-      <c r="E97" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F97" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98">
-        <v>12</v>
-      </c>
-      <c r="E98" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F98" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99">
-        <v>14</v>
-      </c>
-      <c r="E99" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F99" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B100" t="s">
-        <v>218</v>
-      </c>
-      <c r="D100">
-        <v>17</v>
-      </c>
-      <c r="E100" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F100" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>44430</v>
-      </c>
-      <c r="B101" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>22 Aug 2021</v>
-      </c>
-      <c r="F101" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>44430</v>
       </c>
-      <c r="B102" t="s">
-        <v>4</v>
+      <c r="B102">
+        <v>362</v>
       </c>
       <c r="D102">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3944,17 +3970,20 @@
       <c r="F102" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>44430</v>
       </c>
-      <c r="B103" t="s">
-        <v>37</v>
+      <c r="B103">
+        <v>477</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3969,11 +3998,11 @@
       <c r="A104" s="2">
         <v>44430</v>
       </c>
-      <c r="B104" t="s">
-        <v>76</v>
+      <c r="B104">
+        <v>583</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -3988,11 +4017,11 @@
       <c r="A105" s="2">
         <v>44430</v>
       </c>
-      <c r="B105" t="s">
-        <v>9</v>
+      <c r="B105">
+        <v>1328</v>
       </c>
       <c r="D105">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E105" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4001,6 +4030,9 @@
       <c r="F105" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -4008,10 +4040,10 @@
         <v>44430</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4020,9 +4052,6 @@
       <c r="F106" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H106" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -4030,10 +4059,10 @@
         <v>44430</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E107" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4049,10 +4078,10 @@
         <v>44430</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="D108">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4061,9 +4090,6 @@
       <c r="F108" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
-      </c>
-      <c r="H108" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -4071,10 +4097,10 @@
         <v>44430</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E109" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4090,10 +4116,10 @@
         <v>44430</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4109,10 +4135,10 @@
         <v>44430</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E111" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4125,347 +4151,326 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B112">
-        <v>583</v>
+        <v>44430</v>
+      </c>
+      <c r="B112" t="s">
+        <v>37</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F112" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B113">
-        <v>1385</v>
+        <v>44430</v>
+      </c>
+      <c r="B113" t="s">
+        <v>76</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E113" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F113" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
-      </c>
-      <c r="H113" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>179</v>
+        <v>44430</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F114" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>218</v>
+        <v>44430</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F115" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H115" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>220</v>
+        <v>44430</v>
+      </c>
+      <c r="B116" t="s">
+        <v>222</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F116" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E117" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F117" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2838</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>44429</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>76</v>
+        <v>44430</v>
+      </c>
+      <c r="B118" t="s">
+        <v>95</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>21 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F118" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2832</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B119">
-        <v>583</v>
+        <v>44430</v>
+      </c>
+      <c r="B119" t="s">
+        <v>91</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E119" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F119" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B120">
-        <v>884</v>
+        <v>44430</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>22 Aug 2021</v>
       </c>
       <c r="F120" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H120" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B121" t="s">
-        <v>11</v>
+        <v>44429</v>
+      </c>
+      <c r="B121">
+        <v>583</v>
       </c>
       <c r="D121">
         <v>3</v>
       </c>
       <c r="E121" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F121" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B122" t="s">
-        <v>7</v>
+        <v>44429</v>
+      </c>
+      <c r="B122">
+        <v>1385</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E122" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F122" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2832</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B123" t="s">
+        <v>44429</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E123" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F123" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
+        <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B124" t="s">
+        <v>44429</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C124" t="s">
-        <v>180</v>
-      </c>
       <c r="D124">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E124" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F124" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B125" t="s">
-        <v>221</v>
-      </c>
-      <c r="C125" t="s">
-        <v>180</v>
+        <v>44429</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E125" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F125" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>44428</v>
+        <v>44429</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
-      </c>
-      <c r="C126" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E126" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F126" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H126" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>44428</v>
-      </c>
-      <c r="B127" t="s">
-        <v>219</v>
-      </c>
-      <c r="C127" t="s">
-        <v>180</v>
+        <v>44429</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E127" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
+        <v>21 Aug 2021</v>
       </c>
       <c r="F127" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>44428</v>
       </c>
-      <c r="B128" t="s">
-        <v>4</v>
+      <c r="B128">
+        <v>583</v>
       </c>
       <c r="D128">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E128" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4480,19 +4485,22 @@
       <c r="A129" s="2">
         <v>44428</v>
       </c>
-      <c r="B129" t="s">
-        <v>76</v>
+      <c r="B129">
+        <v>884</v>
       </c>
       <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>20 Aug 2021</v>
+      </c>
+      <c r="F129" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H129" t="b">
         <v>1</v>
-      </c>
-      <c r="E129" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>20 Aug 2021</v>
-      </c>
-      <c r="F129" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4500,10 +4508,10 @@
         <v>44428</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E130" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4519,10 +4527,7 @@
         <v>44428</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
-      </c>
-      <c r="C131" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -4534,9 +4539,6 @@
       <c r="F131" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2819</v>
-      </c>
-      <c r="H131" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4544,10 +4546,10 @@
         <v>44428</v>
       </c>
       <c r="B132" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E132" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4560,190 +4562,214 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B133">
-        <v>477</v>
+        <v>44428</v>
+      </c>
+      <c r="B133" t="s">
+        <v>218</v>
+      </c>
+      <c r="C133" t="s">
+        <v>180</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E133" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F133" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B134">
-        <v>573</v>
+        <v>44428</v>
+      </c>
+      <c r="B134" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" t="s">
+        <v>180</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F134" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
       <c r="H134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>44427</v>
-      </c>
-      <c r="B135">
-        <v>583</v>
+        <v>44428</v>
+      </c>
+      <c r="B135" t="s">
+        <v>220</v>
+      </c>
+      <c r="C135" t="s">
+        <v>180</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E135" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F135" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
       <c r="H135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>219</v>
+      </c>
+      <c r="C136" t="s">
+        <v>180</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E136" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F136" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B137" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E137" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F137" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E138" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F138" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E139" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F139" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>222</v>
+      </c>
+      <c r="C140" t="s">
+        <v>92</v>
       </c>
       <c r="D140">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E140" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F140" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D141">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E141" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>19 Aug 2021</v>
+        <v>20 Aug 2021</v>
       </c>
       <c r="F141" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2799</v>
+        <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>44427</v>
       </c>
-      <c r="B142" t="s">
-        <v>37</v>
+      <c r="B142">
+        <v>477</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E142" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4758,11 +4784,11 @@
       <c r="A143" s="2">
         <v>44427</v>
       </c>
-      <c r="B143" t="s">
-        <v>76</v>
+      <c r="B143">
+        <v>573</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E143" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4771,17 +4797,20 @@
       <c r="F143" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H143" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>44427</v>
       </c>
-      <c r="B144" t="s">
-        <v>91</v>
+      <c r="B144">
+        <v>583</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E144" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4790,201 +4819,191 @@
       <c r="F144" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2799</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>44426</v>
-      </c>
-      <c r="B145">
-        <v>477</v>
+        <v>44427</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F145" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="I145" s="1"/>
+        <v>https://t.me/govbnofficial/2799</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E146" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F146" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B147" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E147" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F147" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B148" t="s">
         <v>179</v>
       </c>
-      <c r="C148" t="s">
-        <v>77</v>
-      </c>
       <c r="D148">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E148" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F148" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H148" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B149" t="s">
         <v>180</v>
       </c>
-      <c r="C149" t="s">
-        <v>38</v>
-      </c>
       <c r="D149">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E149" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F149" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
-      </c>
-      <c r="H149" t="b">
-        <v>0</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
       <c r="D150">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E150" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F150" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E151" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F151" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B152" t="s">
         <v>76</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E152" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F152" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E153" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
-        <v>18 Aug 2021</v>
+        <v>19 Aug 2021</v>
       </c>
       <c r="F153" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2780</v>
+        <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>44426</v>
       </c>
-      <c r="B154" t="s">
-        <v>181</v>
+      <c r="B154">
+        <v>477</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E154" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -4994,19 +5013,17 @@
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2780</v>
       </c>
-      <c r="H154" t="b">
-        <v>1</v>
-      </c>
+      <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>44426</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
@@ -5019,175 +5036,199 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>44425</v>
-      </c>
-      <c r="B156" s="7">
-        <v>635</v>
+        <v>44426</v>
+      </c>
+      <c r="B156" t="s">
+        <v>92</v>
       </c>
       <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="E156" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F156" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>179</v>
+      </c>
+      <c r="C157" t="s">
+        <v>77</v>
       </c>
       <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="E157" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F157" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B158" t="s">
-        <v>92</v>
+        <v>180</v>
+      </c>
+      <c r="C158" t="s">
+        <v>38</v>
       </c>
       <c r="D158">
-        <v>3</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>93</v>
+        <v>22</v>
+      </c>
+      <c r="E158" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F158" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H158" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="E159" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F159" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D160">
-        <v>3</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="E160" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F160" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D161">
-        <v>11</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="E161" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F161" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>9</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="E162" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F162" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="D163">
-        <v>2</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="E163" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F163" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
+      </c>
+      <c r="H163" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D164">
         <v>1</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>93</v>
+      <c r="E164" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],3,FALSE)</f>
+        <v>18 Aug 2021</v>
       </c>
       <c r="F164" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2763</v>
+        <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>44425</v>
       </c>
-      <c r="B165" t="s">
-        <v>91</v>
+      <c r="B165" s="7">
+        <v>635</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>93</v>
@@ -5195,9 +5236,6 @@
       <c r="F165" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2763</v>
-      </c>
-      <c r="H165" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -5205,7 +5243,7 @@
         <v>44425</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -5220,178 +5258,178 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B167">
-        <v>477</v>
+        <v>44425</v>
+      </c>
+      <c r="B167" t="s">
+        <v>92</v>
       </c>
       <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F167" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>44424</v>
-      </c>
-      <c r="B168" s="7">
-        <v>635</v>
+        <v>44425</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
       </c>
       <c r="D168">
-        <v>2</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F168" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
-      </c>
-      <c r="H168" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D169">
-        <v>4</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F169" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D170">
-        <v>2</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>94</v>
+        <v>11</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F170" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B171" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>3</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>94</v>
+        <v>9</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F171" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D172">
-        <v>4</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F172" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D173">
-        <v>10</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F173" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B174" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D174">
+        <v>10</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F174" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2763</v>
+      </c>
+      <c r="H174" t="b">
         <v>1</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F174" s="5" t="str">
-        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D175">
-        <v>10</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F175" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2741</v>
+        <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>44424</v>
       </c>
-      <c r="B176" t="s">
-        <v>95</v>
+      <c r="B176">
+        <v>477</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>94</v>
@@ -5400,331 +5438,334 @@
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
-      <c r="H176" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B177">
-        <v>477</v>
+        <v>44424</v>
+      </c>
+      <c r="B177" s="7">
+        <v>635</v>
       </c>
       <c r="D177">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F177" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+      <c r="H177" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B178" s="1">
-        <v>495</v>
+        <v>44424</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F178" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H178" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B179" s="1">
-        <v>535</v>
+        <v>44424</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F179" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
-      </c>
-      <c r="H179" t="b">
-        <v>1</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B180" t="s">
         <v>77</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F180" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B181" t="s">
         <v>38</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F181" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B182" s="1" t="s">
+        <v>44424</v>
+      </c>
+      <c r="B182" t="s">
         <v>4</v>
       </c>
       <c r="D182">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F182" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>9</v>
+        <v>44424</v>
+      </c>
+      <c r="B183" t="s">
+        <v>76</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F183" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>8</v>
+        <v>44424</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F184" s="5" t="str">
         <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2722</v>
+        <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B185">
-        <v>477</v>
+        <v>44424</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
       </c>
       <c r="D185">
-        <v>4</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F185" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F185" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2741</v>
+      </c>
+      <c r="H185" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B186" t="s">
-        <v>11</v>
+        <v>44423</v>
+      </c>
+      <c r="B186">
+        <v>477</v>
       </c>
       <c r="D186">
-        <v>4</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F186" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F186" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B187" t="s">
-        <v>7</v>
+        <v>44423</v>
+      </c>
+      <c r="B187" s="1">
+        <v>495</v>
       </c>
       <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F187" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
+      </c>
+      <c r="H187" t="b">
         <v>1</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F187" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B188" t="s">
-        <v>77</v>
-      </c>
-      <c r="C188" s="1">
-        <v>499</v>
+        <v>44423</v>
+      </c>
+      <c r="B188" s="1">
+        <v>535</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F188" t="s">
-        <v>75</v>
+      <c r="E188" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F188" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
       <c r="H188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="B189" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D189">
-        <v>4</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F189" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F189" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F190" t="s">
-        <v>75</v>
+      <c r="E190" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F190" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B191" t="s">
-        <v>76</v>
+        <v>44423</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>1</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F191" t="s">
-        <v>75</v>
-      </c>
-      <c r="H191" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F191" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B192" t="s">
+        <v>44423</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D192">
-        <v>7</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F192" t="s">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F192" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>44422</v>
-      </c>
-      <c r="B193" t="s">
-        <v>6</v>
+        <v>44423</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F193" t="s">
-        <v>75</v>
+      <c r="E193" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F193" s="5" t="str">
+        <f>VLOOKUP(Tbl_Clusters[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44422</v>
       </c>
-      <c r="B194" t="s">
-        <v>8</v>
+      <c r="B194">
+        <v>477</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>78</v>
@@ -5735,198 +5776,201 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B195">
-        <v>451</v>
+        <v>44422</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F195" t="s">
-        <v>74</v>
-      </c>
-      <c r="H195" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B196">
-        <v>477</v>
+        <v>44422</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F196" t="s">
-        <v>74</v>
-      </c>
-      <c r="H196" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>44421</v>
-      </c>
-      <c r="B197" s="1">
+        <v>44422</v>
+      </c>
+      <c r="B197" t="s">
+        <v>77</v>
+      </c>
+      <c r="C197" s="1">
         <v>499</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F197" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="H197" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F198" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="B199" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F199" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D200">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F200" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="H200" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F201" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F202" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B203" s="1">
-        <v>499</v>
+        <v>44422</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
-      </c>
-      <c r="H203" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B204" t="s">
-        <v>11</v>
+        <v>44421</v>
+      </c>
+      <c r="B204">
+        <v>451</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="H204" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B205" t="s">
-        <v>38</v>
+        <v>44421</v>
+      </c>
+      <c r="B205">
+        <v>477</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H205" t="b">
         <v>1</v>
@@ -5934,302 +5978,272 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>44420</v>
-      </c>
-      <c r="B206" t="s">
-        <v>4</v>
+        <v>44421</v>
+      </c>
+      <c r="B206" s="1">
+        <v>499</v>
       </c>
       <c r="D206">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B207" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
-      </c>
-      <c r="H207" t="b">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>44419</v>
+        <v>44421</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>32</v>
-      </c>
-      <c r="H211" t="b">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>44419</v>
-      </c>
-      <c r="B212" t="s">
-        <v>4</v>
+        <v>44420</v>
+      </c>
+      <c r="B212" s="1">
+        <v>499</v>
       </c>
       <c r="D212">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="H212" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D213">
         <v>4</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s">
-        <v>32</v>
-      </c>
-      <c r="H213" t="b">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D214">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="H214" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
-      </c>
-      <c r="G216" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="H216" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
-      </c>
-      <c r="G217" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
-      </c>
-      <c r="G219" t="s">
-        <v>30</v>
-      </c>
-      <c r="H219" t="b">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H220" t="b">
         <v>0</v>
@@ -6237,42 +6251,42 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D222">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G222" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H222" t="b">
         <v>1</v>
@@ -6280,134 +6294,323 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D223">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
-      </c>
-      <c r="H223" t="b">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F224" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="B225" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
-      </c>
-      <c r="H225" t="b">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G226" t="s">
-        <v>29</v>
-      </c>
-      <c r="H226" t="b">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>8</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228">
+        <v>9</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" t="s">
+        <v>30</v>
+      </c>
+      <c r="H228" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>13</v>
+      </c>
+      <c r="G229" t="s">
+        <v>30</v>
+      </c>
+      <c r="H229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B231" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F231" t="s">
+        <v>19</v>
+      </c>
+      <c r="G231" t="s">
+        <v>29</v>
+      </c>
+      <c r="H231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232">
+        <v>29</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F232" t="s">
+        <v>19</v>
+      </c>
+      <c r="G232" t="s">
+        <v>29</v>
+      </c>
+      <c r="H232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233">
+        <v>4</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F233" t="s">
+        <v>19</v>
+      </c>
+      <c r="G233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B234" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234">
+        <v>5</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F234" t="s">
+        <v>21</v>
+      </c>
+      <c r="G234" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235">
+        <v>7</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F235" t="s">
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>29</v>
+      </c>
+      <c r="H235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
         <v>44415</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B236" t="s">
         <v>34</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C236" t="s">
         <v>12</v>
       </c>
-      <c r="D227">
+      <c r="D236">
         <v>5</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F236" t="s">
         <v>27</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G236" t="s">
         <v>35</v>
       </c>
-      <c r="H227" t="b">
+      <c r="H236" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>231</v>
       </c>
-      <c r="D228">
+      <c r="D237">
         <f>SUBTOTAL(109,Tbl_Clusters[new_cases])</f>
-        <v>1334</v>
-      </c>
-      <c r="H228">
+        <v>1358</v>
+      </c>
+      <c r="H237">
         <f>SUBTOTAL(103,Tbl_Clusters[new_cluster])</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6420,10 +6623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D616A1-1DAC-724C-B8AD-DC0D33396E98}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6468,782 +6671,812 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>44438</v>
+      <c r="A2" s="2">
+        <v>44439</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B13" si="0">C3+1</f>
-        <v>2566</v>
+        <f t="shared" ref="B2:B14" si="0">C3+1</f>
+        <v>2642</v>
       </c>
       <c r="C2">
-        <v>2641</v>
+        <v>2712</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D13" si="1">C2-C3</f>
-        <v>76</v>
+        <f t="shared" ref="D2:D14" si="1">C2-C3</f>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G2">
-        <v>45</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1012</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44437</v>
+      <c r="A3" s="10">
+        <v>44438</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>2463</v>
+        <v>2566</v>
       </c>
       <c r="C3">
-        <v>2565</v>
+        <v>2641</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1011</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>44436</v>
+      <c r="A4" s="9">
+        <v>44437</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>2381</v>
+        <v>2463</v>
       </c>
       <c r="C4">
-        <v>2462</v>
+        <v>2565</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
         <f>D4-E4</f>
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2907</v>
+        <v>http://www.moh.gov.bn/Lists/Latest%20news/NewDispForm.aspx?ID=1010</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>44435</v>
+      <c r="A5" s="10">
+        <v>44436</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>2266</v>
+        <v>2381</v>
       </c>
       <c r="C5">
-        <v>2380</v>
+        <v>2462</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f>D5-E5</f>
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="G5">
-        <v>59</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2899</v>
+        <v>https://t.me/govbnofficial/2907</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>2266</v>
       </c>
       <c r="C6">
-        <v>2265</v>
+        <v>2380</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f>D6-E6</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
-        <v>https://t.me/govbnofficial/2891</v>
+        <v>https://t.me/govbnofficial/2899</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1984</v>
+        <v>2160</v>
       </c>
       <c r="C7">
-        <v>2159</v>
+        <v>2265</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F8" si="2">D7-E7</f>
+        <f>D7-E7</f>
+        <v>106</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
+        <v>https://t.me/govbnofficial/2891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="C8">
+        <v>2159</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="G7">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="2">D8-E8</f>
+        <v>176</v>
+      </c>
+      <c r="G8">
         <f>Tbl_Case_No[[#This Row],[new_local_cases]]-88</f>
         <v>88</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I8" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2880</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44432</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>1874</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1983</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>46</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I9" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2872</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>44431</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1873</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F9">
-        <f>D9-E9</f>
+      <c r="F10">
+        <f>D10-E10</f>
         <v>104</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>70</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I10" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2851</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>44430</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>1456</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1769</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="F10">
-        <f>D10-E10</f>
+      <c r="F11">
+        <f>D11-E11</f>
         <v>308</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>141</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I11" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2838</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>44429</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>1334</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1455</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F11">
-        <f>D11-E11</f>
+      <c r="F12">
+        <f>D12-E12</f>
         <v>120</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>79</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I12" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2832</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>44428</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>1137</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1333</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F13" si="3">D12-E12</f>
+      <c r="F13">
+        <f t="shared" ref="F13:F14" si="3">D13-E13</f>
         <v>197</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>74</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I13" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2819</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>44427</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>947</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1136</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I14" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2799</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44426</v>
       </c>
-      <c r="B14">
-        <f>C15+1</f>
+      <c r="B15">
+        <f>C16+1</f>
         <v>853</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>946</v>
       </c>
-      <c r="D14">
-        <f>C14-C15</f>
+      <c r="D15">
+        <f>C15-C16</f>
         <v>94</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="F14">
-        <f>D14-E14</f>
+      <c r="F15">
+        <f>D15-E15</f>
         <v>94</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>30</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I15" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2780</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44425</v>
       </c>
-      <c r="B15">
-        <f>C16+1</f>
+      <c r="B16">
+        <f>C17+1</f>
         <v>788</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>852</v>
       </c>
-      <c r="D15">
-        <f>C15-C16</f>
+      <c r="D16">
+        <f>C16-C17</f>
         <v>65</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="F15">
-        <f>D15-E15</f>
+      <c r="F16">
+        <f>D16-E16</f>
         <v>61</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>18</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I16" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2763</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44424</v>
       </c>
-      <c r="B16">
-        <f>C17+1</f>
+      <c r="B17">
+        <f>C18+1</f>
         <v>724</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>787</v>
       </c>
-      <c r="D16">
-        <f t="shared" ref="D16:D24" si="4">C16-C17</f>
+      <c r="D17">
+        <f t="shared" ref="D17:D25" si="4">C17-C18</f>
         <v>64</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F18" si="5">D16-E16</f>
+      <c r="F17">
+        <f t="shared" ref="F17:F19" si="5">D17-E17</f>
         <v>64</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>24</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I17" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2741</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>44423</v>
       </c>
-      <c r="B17">
-        <f>C18+1</f>
+      <c r="B18">
+        <f>C19+1</f>
         <v>641</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>723</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>32</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I18" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2722</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>44422</v>
       </c>
-      <c r="B18">
-        <f>C19+1</f>
+      <c r="B19">
+        <f>C20+1</f>
         <v>599</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>640</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I19" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2706</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>44421</v>
       </c>
-      <c r="B19">
-        <f t="shared" ref="B19:B24" si="6">C20+1</f>
+      <c r="B20">
+        <f t="shared" ref="B20:B25" si="6">C21+1</f>
         <v>544</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>598</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F19">
-        <f t="shared" ref="F19:F25" si="7">D19-E19</f>
+      <c r="F20">
+        <f t="shared" ref="F20:F26" si="7">D20-E20</f>
         <v>54</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>22</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I20" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2687</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>44420</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <f t="shared" si="6"/>
         <v>495</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>543</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I21" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2668</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>44419</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>494</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>13</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I22" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2639</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>44418</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>440</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I23" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2626</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>44417</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>406</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>0</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I24" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2595</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>44416</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <f t="shared" si="6"/>
         <v>348</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>364</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>0</v>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="I25" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2557</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>44415</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>340</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>347</v>
       </c>
-      <c r="D25">
-        <f>C25-B25+1</f>
+      <c r="D26">
+        <f>C26-B26+1</f>
         <v>8</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>0</v>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="I26" s="5" t="str">
         <f>VLOOKUP(Tbl_Case_No[[#This Row],[date]],Tbl_Local_Cases[],4,FALSE)</f>
         <v>https://t.me/govbnofficial/2512</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>231</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f>SUBTOTAL(109,Tbl_Case_No[new_total_cases])</f>
-        <v>2302</v>
-      </c>
-      <c r="E26">
+        <v>2373</v>
+      </c>
+      <c r="E27">
         <f>SUBTOTAL(109,Tbl_Case_No[new_import_cases])</f>
         <v>32</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <f>SUBTOTAL(109,Tbl_Case_No[new_local_cases])</f>
-        <v>2270</v>
-      </c>
-      <c r="G26">
+        <v>2341</v>
+      </c>
+      <c r="G27">
         <f>SUBTOTAL(109,Tbl_Case_No[new_unlinked_cases])</f>
-        <v>936</v>
-      </c>
-      <c r="H26">
+        <v>983</v>
+      </c>
+      <c r="H27">
         <f>SUBTOTAL(109,Tbl_Case_No[prev_unlinked_now_linked])</f>
         <v>18</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <f>SUBTOTAL(103,Tbl_Case_No[source_url])</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7257,10 +7490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B62DA-41EB-0D40-9B46-F05319D6FD2E}">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7413,267 +7646,294 @@
       </c>
       <c r="D15" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1888</v>
+        <v>1848</v>
       </c>
       <c r="D16" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2085</v>
+        <v>1888</v>
       </c>
       <c r="D17" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2262</v>
+        <v>2085</v>
       </c>
       <c r="D18" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>270</v>
+      <c r="A19">
+        <v>2155</v>
       </c>
       <c r="D19" s="7">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2230</v>
+      </c>
+      <c r="D20" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2262</v>
+      </c>
+      <c r="D21" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="7">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>499</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>180</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26">
-        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>37</v>
-      </c>
-    </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>26</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="D28">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>277</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="D29">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="D30">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="D32">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="D33">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>266</v>
-      </c>
-      <c r="B34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D35">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="D36">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>266</v>
+      </c>
+      <c r="B37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
       </c>
       <c r="D37">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="D38">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D40">
         <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <f>SUM(SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name2]],Tbl_Clusters[new_cases]),SUMIF(Tbl_Clusters[cluster_name],Tbl_Cluster_Totals[[#This Row],[cluster_name3]],Tbl_Clusters[new_cases]))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>231</v>
       </c>
-      <c r="D41">
+      <c r="D44">
         <f>SUBTOTAL(109,Tbl_Cluster_Totals[est_cluster_size])</f>
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="181" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
